--- a/data/key_items.xlsx
+++ b/data/key_items.xlsx
@@ -20,35 +20,32 @@
     <t>info</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>type_id</t>
   </si>
   <si>
     <t>image_url</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
     <t>Abandoned Merchant's Bell Bearing</t>
   </si>
   <si>
     <t>Offer to Twin Maiden Husks for new item access</t>
-  </si>
-  <si>
-    <t>Reusable</t>
   </si>
   <si>
     <t>Bell bearing of a merchant left behind, found upon his perished flesh.
 Offer to the Twin Maiden Husks at the Roundtable Hold to gain access to new items.</t>
   </si>
   <si>
+    <t>Reusable</t>
+  </si>
+  <si>
     <t>Academy Glintstone Key</t>
   </si>
   <si>
     <t>Key to open the academy's two sealed gates</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6979cd85l0i206pxht9kpknud0h.png</t>
   </si>
   <si>
     <t>Key to the seals binding both gates to the Academy of Raya Lucaria.
@@ -56,13 +53,13 @@
 This glintstone key is still brand new, unused by anyone.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6979cd85l0i206pxht9kpknud0h.png</t>
+  </si>
+  <si>
     <t>Academy Scroll</t>
   </si>
   <si>
     <t>Give to a learned sorcerer to acquire new sorceries</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f694fccbbl0i20eikwp9uvlqwr6o.png</t>
   </si>
   <si>
     <t>Scroll of the Academy of Raya Lucaria, the glintstone sorcerers' place of study.
@@ -71,6 +68,9 @@
 - Swift Glintstone Shard</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f694fccbbl0i20eikwp9uvlqwr6o.png</t>
+  </si>
+  <si>
     <t>Alexander's Innards</t>
   </si>
   <si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>Expands crafting repertoire</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69c972e4l0i1ziaqbmt5nn2nfxk.png</t>
   </si>
   <si>
     <t>A record of crafting techniques taught by the capital's ancient dragon cult.
@@ -123,10 +120,10 @@
 - Lightningbone Bolt</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69c972e4l0i1ziaqbmt5nn2nfxk.png</t>
+  </si>
+  <si>
     <t>Ancient Dragon Apostle's Cookbook [2]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69b9584al0i1zivdht7fbjv2zjq.png</t>
   </si>
   <si>
     <t>A record of crafting techniques taught by the capital's ancient dragon cult.
@@ -136,10 +133,10 @@
 - Roped Lightning Pot</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69b9584al0i1zivdht7fbjv2zjq.png</t>
+  </si>
+  <si>
     <t>Ancient Dragon Apostle's Cookbook [3]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69b12521l0i1zivlbebkgvvzsal.png</t>
   </si>
   <si>
     <t>A record of crafting techniques taught by the capital's ancient dragon cult.
@@ -148,10 +145,10 @@
 - Dragonwound Grease</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69b12521l0i1zivlbebkgvvzsal.png</t>
+  </si>
+  <si>
     <t>Ancient Dragon Apostle's Cookbook [4]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69b4a217l0i1zix90eaz2cyjd06r.png</t>
   </si>
   <si>
     <t>A record of crafting techniques taught by the capital's ancient dragon cult.
@@ -161,13 +158,13 @@
 - Lightningproof Dried Liver</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69b4a217l0i1zix90eaz2cyjd06r.png</t>
+  </si>
+  <si>
     <t>Ancient Dragon Prayerbook</t>
   </si>
   <si>
     <t>Give to a learned cleric to acquire new incantations</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69e2b453l0i20e2ze058fuit5nf.png</t>
   </si>
   <si>
     <t>Prayerbook of the capital's ancient dragon cult.
@@ -178,10 +175,10 @@
 - Ancient Dragons' Lightning Strike</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69e2b453l0i20e2ze058fuit5nf.png</t>
+  </si>
+  <si>
     <t>Armorer's Cookbook [1]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f695b03bcl0i1z9pei7soclm9rrb.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by an armorer who served the great general Radahn.
@@ -192,10 +189,10 @@
 - Fireproof Dried Liver</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f695b03bcl0i1z9pei7soclm9rrb.png</t>
+  </si>
+  <si>
     <t>Armorer's Cookbook [2]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f698d84c6l0i1z9j88aqgzk91xi.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by an armorer who served the great general Radahn.
@@ -207,10 +204,10 @@
 - Neutralizing Boluses</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f698d84c6l0i1z9j88aqgzk91xi.png</t>
+  </si>
+  <si>
     <t>Armorer's Cookbook [3]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6973b0dfl0i1z9j8z53v119vieb.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by an armorer who served the great general Radahn.
@@ -219,10 +216,10 @@
 - Exalted Flesh</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6973b0dfl0i1z9j8z53v119vieb.png</t>
+  </si>
+  <si>
     <t>Armorer's Cookbook [4]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69580265l0i1z9ldv7cl2ik9fj.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by an armorer who served the great general Radahn.
@@ -231,10 +228,10 @@
 - Redmane Fire Pot</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69580265l0i1z9ldv7cl2ik9fj.png</t>
+  </si>
+  <si>
     <t>Armorer's Cookbook [5]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69d9a17el0i1za4u32e9vwk8fod.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by an armorer who served the great general Radahn.
@@ -244,10 +241,10 @@
 - Immunizing White Cured Meat</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69d9a17el0i1za4u32e9vwk8fod.png</t>
+  </si>
+  <si>
     <t>Armorer's Cookbook [6]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6964fe20l0i1za7f9d49sepjq0m.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by an armorer who served the great general Radahn.
@@ -256,10 +253,10 @@
 - Preserving Boluses</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6964fe20l0i1za7f9d49sepjq0m.png</t>
+  </si>
+  <si>
     <t>Armorer's Cookbook [7]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69648c8cl0i1za89md3xfqou70r.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by an armorer who served the great general Radahn.
@@ -268,10 +265,10 @@
 - Giantsflame Fire Pot</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69648c8cl0i1za89md3xfqou70r.png</t>
+  </si>
+  <si>
     <t>Assassin's Prayerbook</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69ab901fl0i20dd00gtgirm4elci.png</t>
   </si>
   <si>
     <t>Prayerbook of the Roundtable Hold's assassins.
@@ -280,13 +277,13 @@
 - Darkness</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69ab901fl0i20dd00gtgirm4elci.png</t>
+  </si>
+  <si>
     <t>Beast Eye</t>
   </si>
   <si>
     <t>Said to tremble when close to Deathroot</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69c98ba8l0i208j7gybwirorhvk.png</t>
   </si>
   <si>
     <t>Claw-marked stone eye received from Gurranq, Beast Clergyman.
@@ -295,6 +292,9 @@
 "I am not sated... Feed me more...Death..."</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69c98ba8l0i208j7gybwirorhvk.png</t>
+  </si>
+  <si>
     <t>Bernahl's Bell Bearing</t>
   </si>
   <si>
@@ -308,24 +308,24 @@
     <t>Mark of the Night of the Black Knives ritual</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69826b90l0i209g5sv9021cx8ik.png</t>
-  </si>
-  <si>
     <t>On the Night of the Black Knives, someone stole a fragment of Death from Maliketh, the Black Blade, and imbued its power into the assassins' daggers.
 This mark is evidence of the ritual, and hides the truth of the conspiracy.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69826b90l0i209g5sv9021cx8ik.png</t>
+  </si>
+  <si>
     <t>Black Whetblade</t>
   </si>
   <si>
     <t>Grants choice of affinity upgrade to weapon</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69c318f1l0i20f46vnxg6mw0oo.png</t>
   </si>
   <si>
     <t>Black whetblade with a cipher engraved. Can be used as a whetstone knife.
 When applying an affinity using physical or occult-type ashes of war, an additional affinity of poison, blood, or occult can be chosen.</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69c318f1l0i20f46vnxg6mw0oo.png</t>
   </si>
   <si>
     <t>Blackguard's Bell Bearing</t>
@@ -350,24 +350,18 @@
     <t>Key revealing the hidden form of Carian Study Hall</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69ab7dd2l0i20bzz7fy70n87jt3.png</t>
-  </si>
-  <si>
     <t>Statuette of a scholar, with ground and sky inverted.
 Reveals the hidden form of the Carian Study Hall, which connects to the divine tower.
 To unveil the secret, affix it to the pedestal of the celestial globe.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69ab7dd2l0i20bzz7fy70n87jt3.png</t>
+  </si>
+  <si>
     <t>Celestial Dew</t>
   </si>
   <si>
     <t>Carry out Absolution at the Church of Vows</t>
-  </si>
-  <si>
-    <t>Consumable</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69a32e39l0i2092ydbzq5izu5c8.png</t>
   </si>
   <si>
     <t>A hidden Tear found in the Eternal City.
@@ -376,13 +370,16 @@
 Once upon a time, the stars of the night sky guided fate, and this is a recollection of those times.</t>
   </si>
   <si>
+    <t>Consumable</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69a32e39l0i2092ydbzq5izu5c8.png</t>
+  </si>
+  <si>
     <t>Cerulean Crystal Tear</t>
   </si>
   <si>
     <t>Restores half of total FP in mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f697c721fl0i20j4uws9c44dnb3e.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
@@ -390,13 +387,13 @@
 The resulting concoction restores half of one's maximum FP.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f697c721fl0i20j4uws9c44dnb3e.png</t>
+  </si>
+  <si>
     <t>Cerulean Hidden Tear</t>
   </si>
   <si>
     <t>Eliminates all FP consumption in mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69e2c73dl0i20j8em1vna080i3k.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
@@ -405,17 +402,20 @@
 However, this effect is only brief and will quickly expire.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69e2c73dl0i20j8em1vna080i3k.png</t>
+  </si>
+  <si>
     <t>Chrysalids' Memento</t>
   </si>
   <si>
     <t>Broach wrapped in red velvet</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69afd15fl0i208acg0jckcmfrp4.png</t>
   </si>
   <si>
     <t>Memento left by the chrysalids sacrificed for grafting. A brooch wrapped in red velvet. Traces of blood are visible.
 Faintly visible spirits try to convey something, but their voices cannot be heard.</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69afd15fl0i208acg0jckcmfrp4.png</t>
   </si>
   <si>
     <t>Conspectus Scroll</t>
@@ -441,21 +441,18 @@
     <t>Container required for crafting cracked pot items</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69cd64fel0i20oy5m6swcehuold.png</t>
-  </si>
-  <si>
     <t>This empty pot somehow mends itself when broken.
 Essential vessel for crafting cracked pot items.
 The materials and magics sealed within deploy their effects when the pot is thrown.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69cd64fel0i20oy5m6swcehuold.png</t>
+  </si>
+  <si>
     <t>Crafting Kit</t>
   </si>
   <si>
     <t>Enables the practice of item crafting</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f697d40afl0i2041cta4gx4stl1.png</t>
   </si>
   <si>
     <t>Leather bag containing a pestle and mortar, small blade, and various other tools.
@@ -463,13 +460,13 @@
 Provides both means to fight and means to survive.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f697d40afl0i2041cta4gx4stl1.png</t>
+  </si>
+  <si>
     <t>Crimson Bubbletear</t>
   </si>
   <si>
     <t>Restores HP when near death in mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69880f5cl0i20lxljnhf615863.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
@@ -478,13 +475,13 @@
 However, this effect only occurs once, and will expire after a certain duration.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69880f5cl0i20lxljnhf615863.png</t>
+  </si>
+  <si>
     <t>Crimson Crystal Tear</t>
   </si>
   <si>
     <t>Restores half of total HP in mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69561c1fl0i20jhvr6qnfvfnvlt.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
@@ -492,13 +489,13 @@
 The resulting concoction restores half of one's maximum HP.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69561c1fl0i20jhvr6qnfvfnvlt.png</t>
+  </si>
+  <si>
     <t>Crimsonburst Crystal Tear</t>
   </si>
   <si>
     <t>Steadily restores HP for a time in mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69da9423l0i20jnhwocxfpp5qa.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
@@ -506,13 +503,13 @@
 The resulting concoction gradually restores one's HP over time.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69da9423l0i20jnhwocxfpp5qa.png</t>
+  </si>
+  <si>
     <t>Crimsonspill Crystal Tear</t>
   </si>
   <si>
     <t>Temporarily boosts max HP in mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6955db65l0i20ldhqzkp3n6bm9o.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
@@ -520,13 +517,13 @@
 The resulting concoction temporarily raises one's maximum HP.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6955db65l0i20ldhqzkp3n6bm9o.png</t>
+  </si>
+  <si>
     <t>Crimsonwhorl Bubbletear</t>
   </si>
   <si>
     <t>Converts damage received into HP in mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69d8bccfl0i20m1sbm7hv0g8u8.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
@@ -535,6 +532,9 @@
 This effect is only brief and will quickly expire.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69d8bccfl0i20m1sbm7hv0g8u8.png</t>
+  </si>
+  <si>
     <t>Cursemark of Death</t>
   </si>
   <si>
@@ -570,21 +570,18 @@
     <t>Ring of Lunar Princess Ranni's cold oath</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69523119l0i20cmm4d46vbtfoav.png</t>
-  </si>
-  <si>
     <t>Ring depicting a leaden full moon. Symbolic of a cold oath, the ring is supposed to be given by Lunar Princess Ranni to her consort.
 Ranni is an Empyrean, meaning her consort would by rights earn the title of lord.
 A warning is engraved within; "Whoever thou mayest be, take not the ring from this place, the solitude beyond the night is better mine alone."</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69523119l0i20cmm4d46vbtfoav.png</t>
+  </si>
+  <si>
     <t>Deathroot</t>
   </si>
   <si>
     <t>Beast Clergyman seeks and devours these</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f698fde01l0i208oj9xgaolt458e.png</t>
   </si>
   <si>
     <t>A source that gives rise to Those Who Live in Death.
@@ -592,6 +589,9 @@
 On the night of the dire plot the stolen Rune of Death enabled the first Death of a demigod. Later, the Rune of Death spread across the Lands Between through the underground roots of the Greattree, sprouting in the form of Deathroot.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f698fde01l0i208oj9xgaolt458e.png</t>
+  </si>
+  <si>
     <t>Dectus Medallion (Left)</t>
   </si>
   <si>
@@ -617,21 +617,18 @@
     <t>Temporarily boosts dexterity in mixed physick</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69a367e6l0i20k8hchpm6hmgrlb.png</t>
-  </si>
-  <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
 Can be mixed in the Flask of Wondrous Physick.
 The resulting concoction temporarily boosts one's dexterity.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69a367e6l0i20k8hchpm6hmgrlb.png</t>
+  </si>
+  <si>
     <t>Discarded Palace Key</t>
   </si>
   <si>
     <t>Key to treasure chest for Carian Princesses</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f696d60ffl0i207s3ni82cdzpgc9.png</t>
   </si>
   <si>
     <t>A key discarded by Lunar Princess Ranni alongside her very flesh.
@@ -639,10 +636,10 @@
 It is said to be found in the Grand Library of Raya Lucaria with her mother Rennala.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f696d60ffl0i207s3ni82cdzpgc9.png</t>
+  </si>
+  <si>
     <t>Dragon Cult Prayerbook</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69a33a88l0i20dxcmnrdd280sk.png</t>
   </si>
   <si>
     <t>Prayerbook of the capital's ancient dragon cult.
@@ -653,13 +650,13 @@
 - Electrify Armament</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69a33a88l0i20dxcmnrdd280sk.png</t>
+  </si>
+  <si>
     <t>Dragon Heart</t>
   </si>
   <si>
     <t>Gain power of the dragon at the Dragon Communion altar</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f699a6aa5l0i1zmh7yprbiqxpkc.png</t>
   </si>
   <si>
     <t>Dragon heart seized by a dragon tracker.
@@ -668,6 +665,9 @@
 While a terrible and savage-looking thing, the heart has a peculiar beauty to it.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f699a6aa5l0i1zmh7yprbiqxpkc.png</t>
+  </si>
+  <si>
     <t>Drawing-Room Key</t>
   </si>
   <si>
@@ -682,9 +682,6 @@
   </si>
   <si>
     <t>Temporarily boosts faith in mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69579378l0i20jqwrykv5651bni.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
@@ -692,10 +689,10 @@
 The resulting concoction temporarily boosts one's faith.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69579378l0i20jqwrykv5651bni.png</t>
+  </si>
+  <si>
     <t>Fevor's Cookbook [1]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69e36ce5l0i1zab98x6rqsnkacj.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by a man who was utterly captivated by St. Trina. He continued the search for her in his slumber.
@@ -703,10 +700,10 @@
 - Sleep Pot</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69e36ce5l0i1zab98x6rqsnkacj.png</t>
+  </si>
+  <si>
     <t>Fevor's Cookbook [2]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69d428c1l0i1zanj5zzei2c67ey.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by a man who was utterly captivated by St. Trina. He continued the search for her in his slumber.
@@ -718,10 +715,10 @@
 - Sleepbone Bolt</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69d428c1l0i1zanj5zzei2c67ey.png</t>
+  </si>
+  <si>
     <t>Fevor's Cookbook [3]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f698fdea2l0i1zeqb3eyjn1dbptq.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by a man who was utterly captivated by St. Trina. He continued the search for her in his slumber.
@@ -729,13 +726,13 @@
 - Bewitching Branch</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f698fdea2l0i1zeqb3eyjn1dbptq.png</t>
+  </si>
+  <si>
     <t>Fingerprint Grape</t>
   </si>
   <si>
     <t>Eyeball of the knight Vyke, inflamed yellow</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69cab719l0i209ibai7z2o5douc.png</t>
   </si>
   <si>
     <t>Eyeball of the knight Vyke, inflamed yellow.
@@ -743,13 +740,13 @@
 If offered to the blind maiden, it will lead her to the source of the distant light, allowing her to become a Finger Maiden.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69cab719l0i209ibai7z2o5douc.png</t>
+  </si>
+  <si>
     <t>Fingerslayer Blade</t>
   </si>
   <si>
     <t>Hidden treasure of the Eternal City of Nokron</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69d110b2l0i20bsbvoeefww2qqn.png</t>
   </si>
   <si>
     <t>The hidden treasure of the Eternal City of Nokron; a blade said to have been born of a corpse.
@@ -757,10 +754,10 @@
 Cannot be wielded by those without a fate, but is said to be able to harm the Greater Will and its vassals.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69d110b2l0i20bsbvoeefww2qqn.png</t>
+  </si>
+  <si>
     <t>Fire Monks' Prayerbook</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f699197bal0i20dpu8p25sz2o9nh.png</t>
   </si>
   <si>
     <t>Prayerbook of the Fire Monks, who came from the Mountaintops of the Giants far to the north.
@@ -769,6 +766,9 @@
 - Surge, O Flame!</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f699197bal0i20dpu8p25sz2o9nh.png</t>
+  </si>
+  <si>
     <t>Flame-Shrouding Cracked Tear</t>
   </si>
   <si>
@@ -781,15 +781,15 @@
   </si>
   <si>
     <t>Frenzied's Cookbook [1]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69775681l0i1zhfktji7qpekgeb.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by those afflicted by the madness of the flame of frenzy.
 Contains techniques discovered in desperation.
 Acquire the knowledge to craft the following:
 - Clarifying Boluses</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69775681l0i1zhfktji7qpekgeb.png</t>
   </si>
   <si>
     <t>Frenzied's Cookbook [2]</t>
@@ -844,19 +844,16 @@
     <t>Glintstone Craftsman's Cookbook [1]</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69e461dfl0i1zg4jldt4yjnoys.png</t>
-  </si>
-  <si>
     <t>A record of crafting techniques left by a glintstone craftsman who served the academy.
 Contains information on "faux sorceries," such as they were called.
 Acquire the knowledge to craft the following:
 - Cuckoo Glintstone</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69e461dfl0i1zg4jldt4yjnoys.png</t>
+  </si>
+  <si>
     <t>Glintstone Craftsman's Cookbook [2]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69b0fee6l0i1zg4tyg6lrae4tbe.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by a glintstone craftsman who served the academy.
@@ -865,10 +862,10 @@
 - Freezing Grease</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69b0fee6l0i1zg4tyg6lrae4tbe.png</t>
+  </si>
+  <si>
     <t>Glintstone Craftsman's Cookbook [3]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69ca6512l0i1zgmwo4po0v83oq8.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by a glintstone craftsman who served the academy.
@@ -877,10 +874,10 @@
 - Albinauric Pot</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69ca6512l0i1zgmwo4po0v83oq8.png</t>
+  </si>
+  <si>
     <t>Glintstone Craftsman's Cookbook [4]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69a51206l0i1zgo366ludyegee.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by a glintstone craftsman who served the academy.
@@ -891,10 +888,10 @@
 - Shield Grease</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69a51206l0i1zgo366ludyegee.png</t>
+  </si>
+  <si>
     <t>Glintstone Craftsman's Cookbook [5]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f697db6a5l0i1zgqp6vwj9feu18h.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by a glintstone craftsman who served the academy.
@@ -907,16 +904,19 @@
 - Magicbone Bolt</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f697db6a5l0i1zgqp6vwj9feu18h.png</t>
+  </si>
+  <si>
     <t>Glintstone Craftsman's Cookbook [6]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69d1dd3cl0i1zh08kyvg85za7ud.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by a glintstone craftsman who served the academy.
 Contains information on "faux sorceries," such as they were called.
 Acquire the knowledge to craft the following:
 - Freezing Pot</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69d1dd3cl0i1zh08kyvg85za7ud.png</t>
   </si>
   <si>
     <t>Glintstone Craftsman's Cookbook [7]</t>
@@ -933,23 +933,23 @@
     <t>Glintstone Craftsman's Cookbook [8]</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f699eb929l0i1zhbm10vm1rnqhn0i.png</t>
-  </si>
-  <si>
     <t>A record of crafting techniques left by a glintstone craftsman who served the academy.
 Contains information on "faux sorceries," such as they were called.
 Acquire the knowledge to craft the following:
 - Academy Magic Pot</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f699eb929l0i1zhbm10vm1rnqhn0i.png</t>
+  </si>
+  <si>
     <t>Glintstone Whetblade</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69ceb2bfl0i20en3jbf94z5kosa.png</t>
   </si>
   <si>
     <t>Glintstone whetblade with a cipher engraved. Can be used as a whetstone knife.
 When applying an affinity using physical or magic-type ashes of war, an additional affinity of magic or frost can be chosen.</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69ceb2bfl0i20en3jbf94z5kosa.png</t>
   </si>
   <si>
     <t>Glovewort Picker's Bell Bearing [1]</t>
@@ -1017,12 +1017,12 @@
     <t>Special sewing needle for demigod attire</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69a57e1al0i205nrq7r7ejujwwf.png</t>
-  </si>
-  <si>
     <t>Sewing needle made of gold.
 Unique item made to alter demigod attire.
 One of the tools brought by Radagon when he entered into marriage with Rennala, Queen of the Full Moon, and joined the Carian line.</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69a57e1al0i205nrq7r7ejujwwf.png</t>
   </si>
   <si>
     <t>Golden Order Principia</t>
@@ -1041,12 +1041,12 @@
     <t>Allows demigod garb alteration at sites of grace</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69c02f20l0i205dxwda6n4zguv.png</t>
-  </si>
-  <si>
     <t>Tailoring tools made from gold.
 Tools brought with the red-haired Radagon when he married into the Carian line.
 With these, even demigod attire can be altered at a site of grace.</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69c02f20l0i205dxwda6n4zguv.png</t>
   </si>
   <si>
     <t>Gostoc's Bell Bearing</t>
@@ -1090,21 +1090,18 @@
     <t>Temporarily boosts stamina recovery speed in mixed physick</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69d587e6l0i20ldq6svu7yi213g.png</t>
-  </si>
-  <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
 Can be mixed in the Flask of Wondrous Physick.
 The resulting concoction temporarily boosts stamina recovery speed.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69d587e6l0i20ldq6svu7yi213g.png</t>
+  </si>
+  <si>
     <t>Greenspill Crystal Tear</t>
   </si>
   <si>
     <t>Temporarily boosts stamina in mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69aa1441l0i20j2e37z2mxbx8qt.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
@@ -1112,6 +1109,9 @@
 The resulting concoction temporarily raises one's maximum stamina.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69aa1441l0i20j2e37z2mxbx8qt.png</t>
+  </si>
+  <si>
     <t>Haligtree Secret Medallion (Left)</t>
   </si>
   <si>
@@ -1166,9 +1166,6 @@
   </si>
   <si>
     <t>Unseals sending gate, but disappears upon use</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69c62b71l0i206vv9tbzikgtxl.png</t>
   </si>
   <si>
     <t>Stone key shaped like a sword.
@@ -1177,6 +1174,9 @@
 Think well before using one.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69c62b71l0i206vv9tbzikgtxl.png</t>
+  </si>
+  <si>
     <t>Imprisoned Merchant's Bell Bearing</t>
   </si>
   <si>
@@ -1188,9 +1188,6 @@
   </si>
   <si>
     <t>Temporarily boosts intelligence in mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6985c1ael0i20naf0jklozksdt6c.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
@@ -1198,19 +1195,22 @@
 The resulting concoction temporarily boosts one's intelligence.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6985c1ael0i20naf0jklozksdt6c.png</t>
+  </si>
+  <si>
     <t>Irina's Letter</t>
   </si>
   <si>
     <t>Letter addressed to the commander of Castle Morne</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69707f53l0i207oh8lu8mjrhphg.png</t>
   </si>
   <si>
     <t>Letter given by Irina, addressed to her father, the commander of Castle Morne.
 Gorgeous silken handkerchief, lightly stained with blood. Words can be made out within.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69707f53l0i207oh8lu8mjrhphg.png</t>
+  </si>
+  <si>
     <t>Iron Whetblade</t>
   </si>
   <si>
@@ -1242,9 +1242,6 @@
   </si>
   <si>
     <t>Material needed by Rennala to grant rebirth</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69da909al0i20aqnq0fxca1m5be.png</t>
   </si>
   <si>
     <t>Core of a creature of mimicry known as a silver tear.
@@ -1253,18 +1250,21 @@
 Being born anew allows the reallocation of attributes boosted by leveling up.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69da909al0i20aqnq0fxca1m5be.png</t>
+  </si>
+  <si>
     <t>Leaden Hardtear</t>
   </si>
   <si>
     <t>Temporarily boosts poise in mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6959a6ccl0i20l8o0t2gzabbv4g.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
 Can be mixed in the Flask of Wondrous Physick.
 The resulting concoction temporarily boosts one's poise.</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6959a6ccl0i20l8o0t2gzabbv4g.png</t>
   </si>
   <si>
     <t>Lightning-Shrouding Cracked Tear</t>
@@ -1553,15 +1553,15 @@
     <t>Increases memory slots</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f697d6e2fl0i205z4701bi2d4i8o.png</t>
-  </si>
-  <si>
     <t>A black, lightly beguiling stone.
 Prized by the sorcerers who produce them.
 Increases memory slots.
 Said to be a fragment of the black moon that once hung above the Eternal City.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f697d6e2fl0i205z4701bi2d4i8o.png</t>
+  </si>
+  <si>
     <t>Mending Rune of Perfect Order</t>
   </si>
   <si>
@@ -1598,12 +1598,12 @@
     <t>Doll resembling Ranni the Witch</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f699e7b9al0i20ch56uunpr2w1ge.png</t>
-  </si>
-  <si>
     <t>A doll resembling Ranni the Witch.
 From head to toe every detail is perfect.
 This unresponsive doll seems pleasantly cool.</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/items/17f699e7b9al0i20ch56uunpr2w1ge.png</t>
   </si>
   <si>
     <t>A doll resembling Ranni the Witch.
@@ -1622,13 +1622,13 @@
     <t>Missionary's Cookbook [1]</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69b54da8l0i1zarwlosa6oatghm.png</t>
-  </si>
-  <si>
     <t>A record of crafting techniques left by a man who, unable to become a Finger Maiden, instead became a missionary, and went forth to spread holy teachings.
 Acquire the knowledge to craft the following:
 - Holy Water Pot
 - Roped Holy Water Pot</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69b54da8l0i1zarwlosa6oatghm.png</t>
   </si>
   <si>
     <t>Missionary's Cookbook [2]</t>
@@ -1644,18 +1644,15 @@
     <t>Missionary's Cookbook [3]</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f696be910l0i1zb6pflfp474bc8t.png</t>
-  </si>
-  <si>
     <t>A record of crafting techniques left by a man who, unable to become a Finger Maiden, instead became a missionary, and went forth to spread holy teachings.
 Acquire the knowledge to craft the following:
 - Silver-Pickled Fowl Foot</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f696be910l0i1zb6pflfp474bc8t.png</t>
+  </si>
+  <si>
     <t>Missionary's Cookbook [4]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f696c4efbl0i1zbbjda4qxmf8kzc.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by a man who, unable to become a Finger Maiden, instead became a missionary, and went forth to spread holy teachings.
@@ -1667,10 +1664,10 @@
 - Haligbone Bolt</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f696c4efbl0i1zbbjda4qxmf8kzc.png</t>
+  </si>
+  <si>
     <t>Missionary's Cookbook [5]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69c220f9l0i1zbcayfdgzc5yh2k.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by a man who, unable to become a Finger Maiden, instead became a missionary, and went forth to spread holy teachings.
@@ -1678,6 +1675,9 @@
 - Sacred Order Pot</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69c220f9l0i1zbcayfdgzc5yh2k.png</t>
+  </si>
+  <si>
     <t>Missionary's Cookbook [6]</t>
   </si>
   <si>
@@ -1689,12 +1689,12 @@
     <t>Missionary's Cookbook [7]</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6961bfa3l0i1zbvsgmyyg8a7as7.png</t>
-  </si>
-  <si>
     <t>A record of crafting techniques left by a man who, unable to become a Finger Maiden, instead became a missionary, and went forth to spread holy teachings.
 Acquire the knowledge to craft the following:
 - Rejuvenating Boluses</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6961bfa3l0i1zbvsgmyyg8a7as7.png</t>
   </si>
   <si>
     <t>Mohg's Great Rune</t>
@@ -1770,9 +1770,6 @@
   </si>
   <si>
     <t>Nomadic Warrior's Cookbook [1]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f699cc01dl0i1zcfxbtac79ecrh9.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -1783,10 +1780,10 @@
 - Bone Bolt</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f699cc01dl0i1zcfxbtac79ecrh9.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [10]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69b034fdl0i1zdqd6d630e0zg57.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -1795,10 +1792,10 @@
 - Stormwing Bone Arrow</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69b034fdl0i1zdqd6d630e0zg57.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [11]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f698ea0a5l0i1zdvil6p7p73nqco.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -1809,6 +1806,9 @@
 - Shattershard Arrow</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f698ea0a5l0i1zdvil6p7p73nqco.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [12]</t>
   </si>
   <si>
@@ -1819,9 +1819,6 @@
   </si>
   <si>
     <t>Nomadic Warrior's Cookbook [13]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69a93cc2l0i1ze8stwtckka37bd.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -1832,10 +1829,10 @@
 - Bone Ballista Bolt</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69a93cc2l0i1ze8stwtckka37bd.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [14]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69cf9bd0l0i1zec4cc7daag8e6w.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -1846,10 +1843,10 @@
 - Poisonbone Dart</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69cf9bd0l0i1zec4cc7daag8e6w.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [15]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69ac6809l0i1zex4m9c2k1sz6qb.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -1860,10 +1857,10 @@
 - Rotbone Bolt</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69ac6809l0i1zex4m9c2k1sz6qb.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [16]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6996b11el0i1zevwdyb7l44ds8u.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -1873,10 +1870,10 @@
 - Stimulating Boluses</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6996b11el0i1zevwdyb7l44ds8u.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [17]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6998506bl0i1zf11urklhzx6yy.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -1887,10 +1884,10 @@
 - Roped Oil Pot</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6998506bl0i1zf11urklhzx6yy.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [18]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f696a2658l0i1zfdy9wqeumcm1p5.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -1900,6 +1897,9 @@
 - Dappled White Cured Meat</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f696a2658l0i1zfdy9wqeumcm1p5.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [19]</t>
   </si>
   <si>
@@ -1911,9 +1911,6 @@
   </si>
   <si>
     <t>Nomadic Warrior's Cookbook [2]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f698f3124l0i1zcgfoaub4hhz5c.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -1924,10 +1921,10 @@
 - Invigorating White Cured Meat</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f698f3124l0i1zcgfoaub4hhz5c.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [20]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f697ce7a2l0i1zfkaqx67yaqq3in.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -1937,10 +1934,10 @@
 - Roped Volcano Pot</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f697ce7a2l0i1zfkaqx67yaqq3in.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [21]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69de8f6el0i1zfmu2hggk0w6xoe.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -1949,10 +1946,10 @@
 - Alluring Pot</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69de8f6el0i1zfmu2hggk0w6xoe.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [22]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69c179b8l0i1zgf7yrmwlblu65f.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -1963,10 +1960,10 @@
 - Drawstring Rot Grease</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69c179b8l0i1zgf7yrmwlblu65f.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [23]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69baa90dl0i1zh8h3353r1wz8f8.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -1977,10 +1974,10 @@
 - Clarifying White Cured Meat</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69baa90dl0i1zh8h3353r1wz8f8.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [24]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69d22004l0i1zg3o0zd1cmdml6u.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -1990,10 +1987,10 @@
 - Roped Fly Pot</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69d22004l0i1zg3o0zd1cmdml6u.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [3]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6977f601l0i1zcudmlqwbhxvxlg.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -2005,10 +2002,10 @@
 - Poisonbone Bolt</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6977f601l0i1zcudmlqwbhxvxlg.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [4]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6988025el0i1zd1qoym326hibp8.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -2018,10 +2015,10 @@
 - Roped Fetid Pot</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6988025el0i1zd1qoym326hibp8.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [5]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6966acccl0i1zd18qqiub6s1ytp.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -2030,10 +2027,10 @@
 - Beastlure Pot</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6966acccl0i1zd18qqiub6s1ytp.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [6]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69ce4214l0i1zd7ncu58jp3qh2d.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -2046,10 +2043,10 @@
 - Bloodbone Bolt</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69ce4214l0i1zd7ncu58jp3qh2d.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [7]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6957d138l0i1zddedaluxtisiod.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -2060,10 +2057,10 @@
 - Rainbow Stone Arrow</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6957d138l0i1zddedaluxtisiod.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [8]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6980d0c8l0i1zf5catnqhzzcq4d.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -2073,10 +2070,10 @@
 - Drawstring Poison Grease</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6980d0c8l0i1zf5catnqhzzcq4d.png</t>
+  </si>
+  <si>
     <t>Nomadic Warrior's Cookbook [9]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69535af1l0i1zdkjerpcqovjl5s.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by roaming nomad warriors.
@@ -2085,13 +2082,13 @@
 - Rancor Pot</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69535af1l0i1zdkjerpcqovjl5s.png</t>
+  </si>
+  <si>
     <t>Opaline Bubbletear</t>
   </si>
   <si>
     <t>Significantly negates damage in mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69d744c5l0i20jwe37b04q6po19.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
@@ -2100,13 +2097,13 @@
 However, this effect only occurs once, and will expire after a certain duration.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69d744c5l0i20jwe37b04q6po19.png</t>
+  </si>
+  <si>
     <t>Opaline Hardtear</t>
   </si>
   <si>
     <t>Temporarily boosts all damage negation in physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6988a2dfl0i20ml5uqk4eom5n28.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
@@ -2114,6 +2111,9 @@
 The resulting concoction temporarily boosts all forms of damage negation.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6988a2dfl0i20ml5uqk4eom5n28.png</t>
+  </si>
+  <si>
     <t>Patches' Bell Bearing</t>
   </si>
   <si>
@@ -2125,9 +2125,6 @@
   </si>
   <si>
     <t>Container required for crafting perfume items</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69d82f11l0i20tuxkggd95d1j9.png</t>
   </si>
   <si>
     <t>Glass bottles used by perfumers. Used to seal various scent compounds.
@@ -2135,10 +2132,10 @@
 The art of perfuming was once jealously guarded in the capital, but after the perfumers were drafted into service during the Shattering, the art became widely practiced throughout the Lands Between.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69d82f11l0i20tuxkggd95d1j9.png</t>
+  </si>
+  <si>
     <t>Perfumer's Cookbook [1]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69a4e1eel0i1zi2q9em38bfes5f.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by a military perfumer.
@@ -2148,10 +2145,10 @@
 - Uplifting Aromatic</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69a4e1eel0i1zi2q9em38bfes5f.png</t>
+  </si>
+  <si>
     <t>Perfumer's Cookbook [2]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69d93f0bl0i1zi1do78bjwzjpo.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by a depraved perfumer.
@@ -2161,10 +2158,10 @@
 - Bloodboil Aromatic</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69d93f0bl0i1zi1do78bjwzjpo.png</t>
+  </si>
+  <si>
     <t>Perfumer's Cookbook [3]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f698347edl0i1zi4edg1khr0lppf.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by a depraved perfumer.
@@ -2173,10 +2170,10 @@
 - Ironjar Aromatic</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f698347edl0i1zi4edg1khr0lppf.png</t>
+  </si>
+  <si>
     <t>Perfumer's Cookbook [4]</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6974b90fl0i1zi5dk04ssmsdf7.png</t>
   </si>
   <si>
     <t>A record of crafting techniques left by a depraved perfumer.
@@ -2185,6 +2182,9 @@
 - Acid Spraymist</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6974b90fl0i1zi5dk04ssmsdf7.png</t>
+  </si>
+  <si>
     <t>Pidia's Bell Bearing</t>
   </si>
   <si>
@@ -2196,14 +2196,14 @@
   </si>
   <si>
     <t>Purifies the Lord of Blood's curse in a mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69925cc9l0i20mslhcxg8v5za8b.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
 Can be mixed in the Flask of Wondrous Physick.
 The resulting concoction purifies the curse from Mohg, Lord of Blood's terrifying rite of blood.</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69925cc9l0i20mslhcxg8v5za8b.png</t>
   </si>
   <si>
     <t>Radahn's Great Rune</t>
@@ -2238,15 +2238,15 @@
     <t>Container required for crafting ritual pot items</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69654396l0i20p99cx76f8d5wud.png</t>
-  </si>
-  <si>
     <t>This empty pot somehow mends itself when broken.
 Special item with greater durability than a cracked pot.
 Essential vessel for crafting ritual pot items.
 The materials and magics sealed within deploy their effects when the pot is thrown.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69654396l0i20p99cx76f8d5wud.png</t>
+  </si>
+  <si>
     <t>Rogier's Bell Bearing</t>
   </si>
   <si>
@@ -2266,9 +2266,6 @@
   </si>
   <si>
     <t>Royal House Scroll</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69b63b06l0i20ecjxchj0k8a7ig.png</t>
   </si>
   <si>
     <t>Sorcery scroll of the Carian royal family, the heads of the Academy of Raya Lucaria.
@@ -2277,13 +2274,13 @@
 - Carian Slicer</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69b63b06l0i20ecjxchj0k8a7ig.png</t>
+  </si>
+  <si>
     <t>Ruptured Crystal Tear</t>
   </si>
   <si>
     <t>Causes concoction to explode in mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69730a73l0i20ivfxo0h69aodo.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
@@ -2292,17 +2289,20 @@
 A defective crystal tear which possesses absolutely no medicinal qualities. A lesson said to be learned the hard way for some; faith can be a volatile matter, after all.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69730a73l0i20ivfxo0h69aodo.png</t>
+  </si>
+  <si>
     <t>Rusty Key</t>
   </si>
   <si>
     <t>Opens a locked door in Stormveil Castle</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69862ba2l0i206t8hr6feig9ai.png</t>
   </si>
   <si>
     <t>Rusted iron key.
 Opens a locked door in Stormveil Castle.</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69862ba2l0i206t8hr6feig9ai.png</t>
   </si>
   <si>
     <t>Rya's Necklace</t>
@@ -2348,15 +2348,15 @@
     <t>Curse grown on a body defiled by the Dung Eater</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f695a2eeal0i209a1og68zgohdyd.png</t>
-  </si>
-  <si>
     <t>Curse grown on a corpse killed and defiled by the Dung Eater.
 A tender pox afflicted with omen horns.
 The Dung Eater cultivates the seedbed curse on corpses.
 By doing so he prevents dead souls returning to the Erdtree, leaving them forever cursed. One of the most loathsome things found in all the Lands Between.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f695a2eeal0i209a1og68zgohdyd.png</t>
+  </si>
+  <si>
     <t>Sellen's Bell Bearing</t>
   </si>
   <si>
@@ -2400,28 +2400,28 @@
     <t>Letter of introduction addressed to Sellen</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f697ac7cdl0i20bjoloti5bjijqj.png</t>
-  </si>
-  <si>
     <t>Scroll bearing a royal coat of arms.
 A letter of introduction written by Preceptor Seluvis.
 Addressed to a glintstone sorceress by the name of Sellen.
 The contents of the scroll cannot be discerned.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f697ac7cdl0i20bjoloti5bjijqj.png</t>
+  </si>
+  <si>
     <t>Seluvis's Potion</t>
   </si>
   <si>
     <t>Small flask received from Preceptor Seluvis</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69a28766l0i20atzgf1lpmg55at.png</t>
   </si>
   <si>
     <t>Small flask received from Preceptor Seluvis containing a cloudy tonic of bluish black.
 "Find Nepheli, and ensure she drinks it."</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69a28766l0i20atzgf1lpmg55at.png</t>
+  </si>
+  <si>
     <t>Serpent's Amnion</t>
   </si>
   <si>
@@ -2448,24 +2448,24 @@
     <t>Boc the demi-human's prized sewing needle</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69a35611l0i20597yedxrkvphsh.png</t>
-  </si>
-  <si>
     <t>A large sewing needle, curved like a fang.
 Boc the demi-human's prized possession.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69a35611l0i20597yedxrkvphsh.png</t>
+  </si>
+  <si>
     <t>Shabriri Grape</t>
   </si>
   <si>
     <t>Yellowing, oozing eyeball of the infirm</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69b4efcfl0i208rome3b7ahkojo.png</t>
   </si>
   <si>
     <t>A yellowing, oozing eyeball of the infirm. The surface is shriveled, and the inside is squishy, not unlike a large, overly-ripe grape.
 Give to the blind maiden to guide her to the distant light.</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69b4efcfl0i208rome3b7ahkojo.png</t>
   </si>
   <si>
     <t>Smithing-Stone Miner's Bell Bearing [1]</t>
@@ -2560,21 +2560,18 @@
     <t>Boosts resistance and heals status in mixed physick</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f696fcbd8l0i20lfm0397f7x0dt3d.png</t>
-  </si>
-  <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
 Can be mixed in the Flask of Wondrous Physick.
 The resulting concoction temporarily raises all resistances and heals all status ailments.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f696fcbd8l0i20lfm0397f7x0dt3d.png</t>
+  </si>
+  <si>
     <t>Spiked Cracked Tear</t>
   </si>
   <si>
     <t>Enhances charged attacks for a time in mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69836ff1l0i20k414gijjqgw3vk.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
@@ -2582,13 +2579,13 @@
 The resulting concoction increases the power of charged attacks for a certain duration.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69836ff1l0i20k414gijjqgw3vk.png</t>
+  </si>
+  <si>
     <t>Spirit Calling Bell</t>
   </si>
   <si>
     <t>Bell that summons various spirits from ashen items</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69991a5al0i204r59tm4exdtnr.png</t>
   </si>
   <si>
     <t>A bell capable of summoning various spirits
@@ -2597,13 +2594,13 @@
 Only one type of spirit may be summoned at once, and none may be summoned during multiplayer.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69991a5al0i204r59tm4exdtnr.png</t>
+  </si>
+  <si>
     <t>Stonebarb Cracked Tear</t>
   </si>
   <si>
     <t>Makes attacks more likely to break enemy stances in a mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6981aec0l0i20m4sxqx6hk0w1d.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
@@ -2611,13 +2608,13 @@
 The resulting concoction makes one's attacks more likely to break enemy stances. However, the effect lasts only for a short time.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6981aec0l0i20m4sxqx6hk0w1d.png</t>
+  </si>
+  <si>
     <t>Stonesword Key</t>
   </si>
   <si>
     <t>Use to break one imp statue seal</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69b93f33l0i206bj18mqb1lqzvbh.png</t>
   </si>
   <si>
     <t>A sword-shaped stone key.
@@ -2625,13 +2622,13 @@
 Think well before using one.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69b93f33l0i206bj18mqb1lqzvbh.png</t>
+  </si>
+  <si>
     <t>Strength-knot Crystal Tear</t>
   </si>
   <si>
     <t>Temporarily boosts strength in mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f698018fbl0i20jvm3lnanvufs6e.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
@@ -2639,26 +2636,26 @@
 The resulting concoction temporarily boosts one's strength.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f698018fbl0i20jvm3lnanvufs6e.png</t>
+  </si>
+  <si>
     <t>Tailoring Tools</t>
   </si>
   <si>
     <t>Enables armor adjustment at sites of grace</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69bd62d1l0i2055wu9b0k4ddvh.png</t>
   </si>
   <si>
     <t>A portable set of tailoring tools.
 Enables armor alterations at sites of grace.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69bd62d1l0i2055wu9b0k4ddvh.png</t>
+  </si>
+  <si>
     <t>Talisman Pouch</t>
   </si>
   <si>
     <t>Increases talisman equip slots</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69b3daf5l0i2065ib5jg6rmi10i.png</t>
   </si>
   <si>
     <t>Small, withered bag, knitted by hand. Bestowed upon the ruling lord, or those attempting to become lord, by the elderly Finger Reader.
@@ -2666,19 +2663,22 @@
 As the voices of the Two Fingers, Finger Readers are said to live lives eternal, and one is even supposed to have served as a wetnurse to royalty.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69b3daf5l0i2065ib5jg6rmi10i.png</t>
+  </si>
+  <si>
     <t>The Stormhawk King</t>
   </si>
   <si>
     <t>Ashes of a hawk which heeds no summons</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6983c493l0i20cmftbvnhog3ss.png</t>
   </si>
   <si>
     <t>Ashes of a hawk revered by all others as sovereign back in the days when Stormveil's winds still raged like no other.
 This ancient monarch is proud however, refusing to answer anyone's summons.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6983c493l0i20cmftbvnhog3ss.png</t>
+  </si>
+  <si>
     <t>Thops's Bell Bearing</t>
   </si>
   <si>
@@ -2690,9 +2690,6 @@
   </si>
   <si>
     <t>Makes consecutive attacks grow stronger in mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69e058bcl0i20m27gbn17mv4o6o.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
@@ -2700,6 +2697,9 @@
 The resulting concoction makes consecutive attacks grow stronger the longer they continue. However, the effect lasts only for a short time.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69e058bcl0i20m27gbn17mv4o6o.png</t>
+  </si>
+  <si>
     <t>Tonic of Forgetfulness</t>
   </si>
   <si>
@@ -2717,12 +2717,12 @@
     <t>Briefly stop rune loss on death in mixed physick</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69b88332l0i20kw85k8xxbferva.png</t>
-  </si>
-  <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
 Can be mixed in the Flask of Wondrous Physick.
 The resulting concoction prevents one's runes from being lost upon death. However, the effect lasts only for a short time.</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69b88332l0i20kw85k8xxbferva.png</t>
   </si>
   <si>
     <t>Two Fingers' Prayerbook</t>
@@ -2741,14 +2741,14 @@
     <t>Intricate needle of unalloyed gold</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69799c84l0i205u6lcu7cimt6go.png</t>
-  </si>
-  <si>
     <t>An intricately crafted needle of unalloyed gold.
 Removed by Millicent from her flesh. Bears no trace of befouled blood, but is faintly moist with dew.
 "There is something I must return to Malenia. The dignity, the sense of self, that allowed her to resist the call of the scarlet rot."</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69799c84l0i205u6lcu7cimt6go.png</t>
+  </si>
+  <si>
     <t>Snapped intricate needle of unalloyed gold</t>
   </si>
   <si>
@@ -2771,21 +2771,18 @@
     <t>Golden prosthesis used by the one-armed Valkyrie</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69c601f1l0i20axhgsq56l4d2zi.png</t>
-  </si>
-  <si>
     <t>Golden prosthesis once used by the one-armed valkyrie.
 A masterwork of craftsmanship, with practice and skill it can be used as proficiently as a real arm.
 When Maleigh Marais, Lord of the Shaded Castle, embraced this prosthesis, he claimed to feel the presence of his personal goddess.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69c601f1l0i20axhgsq56l4d2zi.png</t>
+  </si>
+  <si>
     <t>Weathered Dagger</t>
   </si>
   <si>
     <t>Dagger received from Fia, Deathbed Companion</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6952825al0i20b9avef4x7252jh.png</t>
   </si>
   <si>
     <t>Dagger received from Fia, the Deathbed Companion.
@@ -2793,13 +2790,13 @@
 It was once a special weapon of gold and silver intertwined, but is now worn down and marred by a black gash.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6952825al0i20b9avef4x7252jh.png</t>
+  </si>
+  <si>
     <t>Whetstone Knife</t>
   </si>
   <si>
     <t>Can add new battle arts and affinities to weapons</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6967bc44l0i20eky6x7bayh6h3p.png</t>
   </si>
   <si>
     <t>Whetstone with a cipher inscription, made to look like a small knifeblade.
@@ -2807,13 +2804,13 @@
 The battle arts and affinities will depend on the ashes of war used.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6967bc44l0i20eky6x7bayh6h3p.png</t>
+  </si>
+  <si>
     <t>Windy Crystal Tear</t>
   </si>
   <si>
     <t>Enhances dodge rolls for a time in mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f6992e09fl0i20m5xak4e12nfsnh.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
@@ -2821,18 +2818,21 @@
 The resulting concoction increases the effectiveness of dodge rolls for a certain duration. However, damage taken is also increased during the concoction's effect.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/items/17f6992e09fl0i20m5xak4e12nfsnh.png</t>
+  </si>
+  <si>
     <t>Winged Crystal Tear</t>
   </si>
   <si>
     <t>Temporarily reduces equip load in mixed physick</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/items/17f69bd68bdl0i20kmor5s3eti9h5o.png</t>
   </si>
   <si>
     <t>A crystal tear formed slowly over the ages where the Erdtree's bounty falls to the ground.
 Can be mixed in the Flask of Wondrous Physick.
 Temporarily reduces equipment load.</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/items/17f69bd68bdl0i20kmor5s3eti9h5o.png</t>
   </si>
 </sst>
 </file>
@@ -3060,10 +3060,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -3393,10 +3393,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3410,7 +3410,7 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3421,13 +3421,13 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3438,13 +3438,13 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3455,11 +3455,11 @@
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3469,11 +3469,11 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3483,11 +3483,11 @@
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -3497,13 +3497,13 @@
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3514,13 +3514,13 @@
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3531,13 +3531,13 @@
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3548,13 +3548,13 @@
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3565,13 +3565,13 @@
       <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3582,13 +3582,13 @@
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3599,13 +3599,13 @@
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3616,13 +3616,13 @@
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3633,13 +3633,13 @@
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3650,13 +3650,13 @@
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3667,13 +3667,13 @@
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3684,13 +3684,13 @@
       <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3701,13 +3701,13 @@
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3718,13 +3718,13 @@
       <c r="B21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3735,11 +3735,11 @@
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>72</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -3749,13 +3749,13 @@
       <c r="B23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3766,13 +3766,13 @@
       <c r="B24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3783,11 +3783,11 @@
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>82</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -3797,11 +3797,11 @@
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>84</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -3811,13 +3811,13 @@
       <c r="B27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3828,13 +3828,13 @@
       <c r="B28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3845,13 +3845,13 @@
       <c r="B29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3862,13 +3862,13 @@
       <c r="B30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3879,13 +3879,13 @@
       <c r="B31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3896,13 +3896,13 @@
       <c r="B32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3913,11 +3913,11 @@
       <c r="B33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>107</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -3927,11 +3927,11 @@
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>109</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -3941,13 +3941,13 @@
       <c r="B35" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="D35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3958,13 +3958,13 @@
       <c r="B36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3975,13 +3975,13 @@
       <c r="B37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3992,13 +3992,13 @@
       <c r="B38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4009,13 +4009,13 @@
       <c r="B39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4026,13 +4026,13 @@
       <c r="B40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4043,13 +4043,13 @@
       <c r="B41" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4060,13 +4060,13 @@
       <c r="B42" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4077,11 +4077,11 @@
       <c r="B43" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>140</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -4091,11 +4091,11 @@
       <c r="B44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>142</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -4105,11 +4105,11 @@
       <c r="B45" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>145</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -4119,13 +4119,13 @@
       <c r="B46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4136,13 +4136,13 @@
       <c r="B47" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="D47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4153,11 +4153,11 @@
       <c r="B48" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>156</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -4167,11 +4167,11 @@
       <c r="B49" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>158</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -4181,13 +4181,13 @@
       <c r="B50" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4198,13 +4198,13 @@
       <c r="B51" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="D51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4215,13 +4215,13 @@
       <c r="B52" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4232,13 +4232,13 @@
       <c r="B53" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="D53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4249,11 +4249,11 @@
       <c r="B54" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>176</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -4263,13 +4263,13 @@
       <c r="B55" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="D55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4280,13 +4280,13 @@
       <c r="B56" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="D56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4297,13 +4297,13 @@
       <c r="B57" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4314,13 +4314,13 @@
       <c r="B58" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="D58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4331,13 +4331,13 @@
       <c r="B59" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="D59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4348,13 +4348,13 @@
       <c r="B60" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="D60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4365,13 +4365,13 @@
       <c r="B61" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="D61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4382,11 +4382,11 @@
       <c r="B62" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>203</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -4396,13 +4396,13 @@
       <c r="B63" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="D63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4413,11 +4413,11 @@
       <c r="B64" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>208</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -4427,11 +4427,11 @@
       <c r="B65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>210</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -4441,11 +4441,11 @@
       <c r="B66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>212</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -4455,11 +4455,11 @@
       <c r="B67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>214</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -4469,11 +4469,11 @@
       <c r="B68" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>216</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -4483,13 +4483,13 @@
       <c r="B69" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="D69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4500,13 +4500,13 @@
       <c r="B70" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="D70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4517,13 +4517,13 @@
       <c r="B71" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4534,13 +4534,13 @@
       <c r="B72" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="D72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4551,13 +4551,13 @@
       <c r="B73" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="D73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4568,13 +4568,13 @@
       <c r="B74" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="D74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4585,11 +4585,11 @@
       <c r="B75" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>236</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -4599,13 +4599,13 @@
       <c r="B76" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="D76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4616,13 +4616,13 @@
       <c r="B77" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="D77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4633,11 +4633,11 @@
       <c r="B78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>244</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="79">
@@ -4647,11 +4647,11 @@
       <c r="B79" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>246</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -4661,11 +4661,11 @@
       <c r="B80" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>248</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -4675,11 +4675,11 @@
       <c r="B81" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>251</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -4689,11 +4689,11 @@
       <c r="B82" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>253</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="83">
@@ -4703,11 +4703,11 @@
       <c r="B83" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>255</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -4717,13 +4717,13 @@
       <c r="B84" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="D84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4734,11 +4734,11 @@
       <c r="B85" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>261</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86">
@@ -4748,13 +4748,13 @@
       <c r="B86" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="D86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4765,11 +4765,11 @@
       <c r="B87" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>267</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -4779,11 +4779,11 @@
       <c r="B88" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>269</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="89">
@@ -4793,11 +4793,11 @@
       <c r="B89" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>271</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -4807,11 +4807,11 @@
       <c r="B90" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>274</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -4821,13 +4821,13 @@
       <c r="B91" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="D91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4838,13 +4838,13 @@
       <c r="B92" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="D92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4855,11 +4855,11 @@
       <c r="B93" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>285</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="94">
@@ -4869,11 +4869,11 @@
       <c r="B94" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>287</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -4883,11 +4883,11 @@
       <c r="B95" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>289</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="96">
@@ -4897,11 +4897,11 @@
       <c r="B96" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>289</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="97">
@@ -4911,11 +4911,11 @@
       <c r="B97" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>289</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="98">
@@ -4925,11 +4925,11 @@
       <c r="B98" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>294</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="99">
@@ -4939,11 +4939,11 @@
       <c r="B99" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>296</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="100">
@@ -4953,13 +4953,13 @@
       <c r="B100" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="D100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4970,11 +4970,11 @@
       <c r="B101" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>302</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="102">
@@ -4984,13 +4984,13 @@
       <c r="B102" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="D102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>306</v>
       </c>
     </row>
@@ -5001,13 +5001,13 @@
       <c r="B103" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="D103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5018,11 +5018,11 @@
       <c r="B104" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" s="3" t="s">
+      <c r="C104" s="2" t="s">
         <v>312</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105">
@@ -5032,11 +5032,11 @@
       <c r="B105" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" s="3" t="s">
+      <c r="C105" s="2" t="s">
         <v>314</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="106">
@@ -5046,11 +5046,11 @@
       <c r="B106" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" s="3" t="s">
+      <c r="C106" s="2" t="s">
         <v>314</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="107">
@@ -5060,11 +5060,11 @@
       <c r="B107" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" s="3" t="s">
+      <c r="C107" s="2" t="s">
         <v>314</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -5074,11 +5074,11 @@
       <c r="B108" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>318</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="109">
@@ -5088,13 +5088,13 @@
       <c r="B109" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="D109" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5105,13 +5105,13 @@
       <c r="B110" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="D110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>326</v>
       </c>
     </row>
@@ -5122,11 +5122,11 @@
       <c r="B111" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="3" t="s">
+      <c r="C111" s="2" t="s">
         <v>329</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="112">
@@ -5136,11 +5136,11 @@
       <c r="B112" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>332</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="113">
@@ -5150,11 +5150,11 @@
       <c r="B113" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" s="3" t="s">
+      <c r="C113" s="2" t="s">
         <v>334</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="114">
@@ -5164,11 +5164,11 @@
       <c r="B114" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F114" s="3" t="s">
+      <c r="C114" s="2" t="s">
         <v>337</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="115">
@@ -5178,11 +5178,11 @@
       <c r="B115" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" s="3" t="s">
+      <c r="C115" s="2" t="s">
         <v>340</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="116">
@@ -5192,11 +5192,11 @@
       <c r="B116" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116" s="3" t="s">
+      <c r="C116" s="2" t="s">
         <v>343</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="117">
@@ -5206,11 +5206,11 @@
       <c r="B117" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" s="3" t="s">
+      <c r="C117" s="2" t="s">
         <v>345</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="118">
@@ -5220,11 +5220,11 @@
       <c r="B118" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>348</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="119">
@@ -5234,11 +5234,11 @@
       <c r="B119" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F119" s="3" t="s">
+      <c r="C119" s="2" t="s">
         <v>351</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="120">
@@ -5248,11 +5248,11 @@
       <c r="B120" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" s="3" t="s">
+      <c r="C120" s="2" t="s">
         <v>354</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="121">
@@ -5262,11 +5262,11 @@
       <c r="B121" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121" s="3" t="s">
+      <c r="C121" s="2" t="s">
         <v>357</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="122">
@@ -5276,11 +5276,11 @@
       <c r="B122" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>360</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="123">
@@ -5290,11 +5290,11 @@
       <c r="B123" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" s="3" t="s">
+      <c r="C123" s="2" t="s">
         <v>363</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124">
@@ -5304,11 +5304,11 @@
       <c r="B124" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" s="3" t="s">
+      <c r="C124" s="2" t="s">
         <v>366</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="125">
@@ -5318,11 +5318,11 @@
       <c r="B125" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" s="3" t="s">
+      <c r="C125" s="2" t="s">
         <v>369</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="126">
@@ -5332,11 +5332,11 @@
       <c r="B126" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>372</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="127">
@@ -5346,11 +5346,11 @@
       <c r="B127" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F127" s="3" t="s">
+      <c r="C127" s="2" t="s">
         <v>375</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="128">
@@ -5360,11 +5360,11 @@
       <c r="B128" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" s="3" t="s">
+      <c r="C128" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="129">
@@ -5374,11 +5374,11 @@
       <c r="B129" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" s="3" t="s">
+      <c r="C129" s="2" t="s">
         <v>381</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="130">
@@ -5388,11 +5388,11 @@
       <c r="B130" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F130" s="3" t="s">
+      <c r="C130" s="2" t="s">
         <v>384</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="131">
@@ -5402,11 +5402,11 @@
       <c r="B131" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F131" s="3" t="s">
+      <c r="C131" s="2" t="s">
         <v>387</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="132">
@@ -5416,11 +5416,11 @@
       <c r="B132" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" s="3" t="s">
+      <c r="C132" s="2" t="s">
         <v>390</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="133">
@@ -5430,11 +5430,11 @@
       <c r="B133" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F133" s="3" t="s">
+      <c r="C133" s="2" t="s">
         <v>393</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="134">
@@ -5444,11 +5444,11 @@
       <c r="B134" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F134" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>396</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="135">
@@ -5458,11 +5458,11 @@
       <c r="B135" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F135" s="3" t="s">
+      <c r="C135" s="2" t="s">
         <v>399</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="136">
@@ -5472,11 +5472,11 @@
       <c r="B136" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F136" s="3" t="s">
+      <c r="C136" s="2" t="s">
         <v>402</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="137">
@@ -5486,11 +5486,11 @@
       <c r="B137" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F137" s="3" t="s">
+      <c r="C137" s="2" t="s">
         <v>404</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="138">
@@ -5500,11 +5500,11 @@
       <c r="B138" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F138" s="3" t="s">
+      <c r="C138" s="2" t="s">
         <v>406</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="139">
@@ -5514,13 +5514,13 @@
       <c r="B139" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="2" t="s">
+      <c r="C139" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="D139" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>410</v>
       </c>
     </row>
@@ -5531,11 +5531,11 @@
       <c r="B140" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F140" s="3" t="s">
+      <c r="C140" s="2" t="s">
         <v>413</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="141">
@@ -5545,11 +5545,11 @@
       <c r="B141" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F141" s="3" t="s">
+      <c r="C141" s="2" t="s">
         <v>415</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="142">
@@ -5559,11 +5559,11 @@
       <c r="B142" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F142" s="3" t="s">
+      <c r="C142" s="2" t="s">
         <v>417</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="143">
@@ -5573,13 +5573,13 @@
       <c r="B143" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="D143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="3" t="s">
         <v>421</v>
       </c>
     </row>
@@ -5590,14 +5590,14 @@
       <c r="B144" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F144" s="3" t="s">
+      <c r="C144" s="2" t="s">
         <v>422</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="145">
@@ -5607,11 +5607,11 @@
       <c r="B145" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F145" s="3" t="s">
+      <c r="C145" s="2" t="s">
         <v>424</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="146">
@@ -5621,13 +5621,13 @@
       <c r="B146" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E146" s="2" t="s">
+      <c r="C146" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="F146" s="3" t="s">
+      <c r="D146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="3" t="s">
         <v>427</v>
       </c>
     </row>
@@ -5638,11 +5638,11 @@
       <c r="B147" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F147" s="3" t="s">
+      <c r="C147" s="2" t="s">
         <v>429</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="148">
@@ -5652,13 +5652,13 @@
       <c r="B148" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E148" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="D148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5669,13 +5669,13 @@
       <c r="B149" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E149" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="F149" s="3" t="s">
+      <c r="D149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="3" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5686,13 +5686,13 @@
       <c r="B150" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E150" s="2" t="s">
+      <c r="C150" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F150" s="3" t="s">
+      <c r="D150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="3" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5703,11 +5703,11 @@
       <c r="B151" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F151" s="3" t="s">
+      <c r="C151" s="2" t="s">
         <v>440</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="152">
@@ -5717,13 +5717,13 @@
       <c r="B152" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E152" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F152" s="3" t="s">
+      <c r="D152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="3" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5734,11 +5734,11 @@
       <c r="B153" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" s="3" t="s">
+      <c r="C153" s="2" t="s">
         <v>446</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="154">
@@ -5748,11 +5748,11 @@
       <c r="B154" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F154" s="3" t="s">
+      <c r="C154" s="2" t="s">
         <v>448</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="155">
@@ -5762,11 +5762,11 @@
       <c r="B155" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F155" s="3" t="s">
+      <c r="C155" s="2" t="s">
         <v>451</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="156">
@@ -5776,11 +5776,11 @@
       <c r="B156" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F156" s="3" t="s">
+      <c r="C156" s="2" t="s">
         <v>453</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="157">
@@ -5790,11 +5790,11 @@
       <c r="B157" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F157" s="3" t="s">
+      <c r="C157" s="2" t="s">
         <v>455</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="158">
@@ -5804,11 +5804,11 @@
       <c r="B158" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F158" s="3" t="s">
+      <c r="C158" s="2" t="s">
         <v>455</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="159">
@@ -5818,11 +5818,11 @@
       <c r="B159" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F159" s="3" t="s">
+      <c r="C159" s="2" t="s">
         <v>455</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="160">
@@ -5832,11 +5832,11 @@
       <c r="B160" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F160" s="3" t="s">
+      <c r="C160" s="2" t="s">
         <v>455</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="161">
@@ -5846,11 +5846,11 @@
       <c r="B161" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F161" s="3" t="s">
+      <c r="C161" s="2" t="s">
         <v>455</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="162">
@@ -5860,11 +5860,11 @@
       <c r="B162" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F162" s="3" t="s">
+      <c r="C162" s="2" t="s">
         <v>455</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="163">
@@ -5874,11 +5874,11 @@
       <c r="B163" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F163" s="3" t="s">
+      <c r="C163" s="2" t="s">
         <v>455</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="164">
@@ -5888,11 +5888,11 @@
       <c r="B164" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F164" s="3" t="s">
+      <c r="C164" s="2" t="s">
         <v>455</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="165">
@@ -5902,11 +5902,11 @@
       <c r="B165" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F165" s="3" t="s">
+      <c r="C165" s="2" t="s">
         <v>455</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="166">
@@ -5916,11 +5916,11 @@
       <c r="B166" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F166" s="3" t="s">
+      <c r="C166" s="2" t="s">
         <v>455</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="167">
@@ -5930,13 +5930,13 @@
       <c r="B167" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E167" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="F167" s="3" t="s">
+      <c r="D167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="3" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5947,13 +5947,13 @@
       <c r="B168" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E168" s="2" t="s">
+      <c r="C168" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="F168" s="3" t="s">
+      <c r="D168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" s="3" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5964,13 +5964,13 @@
       <c r="B169" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E169" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="F169" s="3" t="s">
+      <c r="D169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="3" t="s">
         <v>473</v>
       </c>
     </row>
@@ -5981,11 +5981,11 @@
       <c r="B170" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F170" s="3" t="s">
+      <c r="C170" s="2" t="s">
         <v>475</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="171">
@@ -5995,13 +5995,13 @@
       <c r="B171" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E171" s="2" t="s">
+      <c r="C171" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="D171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" s="3" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6012,13 +6012,13 @@
       <c r="B172" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E172" s="2" t="s">
+      <c r="C172" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="D172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" s="3" t="s">
         <v>481</v>
       </c>
     </row>
@@ -6029,13 +6029,13 @@
       <c r="B173" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E173" s="2" t="s">
+      <c r="C173" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F173" s="3" t="s">
+      <c r="D173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="3" t="s">
         <v>484</v>
       </c>
     </row>
@@ -6046,13 +6046,13 @@
       <c r="B174" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E174" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="F174" s="3" t="s">
+      <c r="D174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" s="3" t="s">
         <v>487</v>
       </c>
     </row>
@@ -6063,13 +6063,13 @@
       <c r="B175" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E175" s="2" t="s">
+      <c r="C175" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="F175" s="3" t="s">
+      <c r="D175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" s="3" t="s">
         <v>490</v>
       </c>
     </row>
@@ -6080,13 +6080,13 @@
       <c r="B176" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E176" s="2" t="s">
+      <c r="C176" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="F176" s="3" t="s">
+      <c r="D176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176" s="3" t="s">
         <v>493</v>
       </c>
     </row>
@@ -6097,11 +6097,11 @@
       <c r="B177" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F177" s="3" t="s">
+      <c r="C177" s="2" t="s">
         <v>495</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="178">
@@ -6111,13 +6111,13 @@
       <c r="B178" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E178" s="2" t="s">
+      <c r="C178" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="F178" s="3" t="s">
+      <c r="D178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="3" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6128,13 +6128,13 @@
       <c r="B179" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E179" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="F179" s="3" t="s">
+      <c r="D179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" s="3" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6145,13 +6145,13 @@
       <c r="B180" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E180" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F180" s="3" t="s">
+      <c r="D180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="3" t="s">
         <v>504</v>
       </c>
     </row>
@@ -6162,13 +6162,13 @@
       <c r="B181" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E181" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="F181" s="3" t="s">
+      <c r="D181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" s="3" t="s">
         <v>507</v>
       </c>
     </row>
@@ -6179,13 +6179,13 @@
       <c r="B182" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E182" s="2" t="s">
+      <c r="C182" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="F182" s="3" t="s">
+      <c r="D182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" s="3" t="s">
         <v>510</v>
       </c>
     </row>
@@ -6196,13 +6196,13 @@
       <c r="B183" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E183" s="2" t="s">
+      <c r="C183" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="F183" s="3" t="s">
+      <c r="D183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" s="3" t="s">
         <v>513</v>
       </c>
     </row>
@@ -6213,13 +6213,13 @@
       <c r="B184" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E184" s="2" t="s">
+      <c r="C184" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="F184" s="3" t="s">
+      <c r="D184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" s="3" t="s">
         <v>516</v>
       </c>
     </row>
@@ -6230,13 +6230,13 @@
       <c r="B185" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E185" s="2" t="s">
+      <c r="C185" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="F185" s="3" t="s">
+      <c r="D185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" s="3" t="s">
         <v>519</v>
       </c>
     </row>
@@ -6247,13 +6247,13 @@
       <c r="B186" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E186" s="2" t="s">
+      <c r="C186" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="F186" s="3" t="s">
+      <c r="D186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" s="3" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6264,13 +6264,13 @@
       <c r="B187" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E187" s="2" t="s">
+      <c r="C187" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="D187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" s="3" t="s">
         <v>525</v>
       </c>
     </row>
@@ -6281,13 +6281,13 @@
       <c r="B188" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E188" s="2" t="s">
+      <c r="C188" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="F188" s="3" t="s">
+      <c r="D188" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" s="3" t="s">
         <v>528</v>
       </c>
     </row>
@@ -6298,13 +6298,13 @@
       <c r="B189" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E189" s="2" t="s">
+      <c r="C189" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="F189" s="3" t="s">
+      <c r="D189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189" s="3" t="s">
         <v>531</v>
       </c>
     </row>
@@ -6315,13 +6315,13 @@
       <c r="B190" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E190" s="2" t="s">
+      <c r="C190" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="F190" s="3" t="s">
+      <c r="D190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" s="3" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6332,13 +6332,13 @@
       <c r="B191" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E191" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="F191" s="3" t="s">
+      <c r="D191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" s="3" t="s">
         <v>538</v>
       </c>
     </row>
@@ -6349,13 +6349,13 @@
       <c r="B192" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E192" s="2" t="s">
+      <c r="C192" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="F192" s="3" t="s">
+      <c r="D192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" s="3" t="s">
         <v>542</v>
       </c>
     </row>
@@ -6366,11 +6366,11 @@
       <c r="B193" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F193" s="3" t="s">
+      <c r="C193" s="2" t="s">
         <v>544</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="194">
@@ -6380,13 +6380,13 @@
       <c r="B194" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E194" s="2" t="s">
+      <c r="C194" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="F194" s="3" t="s">
+      <c r="D194" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E194" s="3" t="s">
         <v>548</v>
       </c>
     </row>
@@ -6397,13 +6397,13 @@
       <c r="B195" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E195" s="2" t="s">
+      <c r="C195" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="F195" s="3" t="s">
+      <c r="D195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195" s="3" t="s">
         <v>551</v>
       </c>
     </row>
@@ -6414,13 +6414,13 @@
       <c r="B196" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E196" s="2" t="s">
+      <c r="C196" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="F196" s="3" t="s">
+      <c r="D196" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" s="3" t="s">
         <v>554</v>
       </c>
     </row>
@@ -6431,13 +6431,13 @@
       <c r="B197" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E197" s="2" t="s">
+      <c r="C197" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="F197" s="3" t="s">
+      <c r="D197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197" s="3" t="s">
         <v>557</v>
       </c>
     </row>
@@ -6448,13 +6448,13 @@
       <c r="B198" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E198" s="2" t="s">
+      <c r="C198" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="F198" s="3" t="s">
+      <c r="D198" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" s="3" t="s">
         <v>560</v>
       </c>
     </row>
@@ -6465,11 +6465,11 @@
       <c r="B199" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F199" s="3" t="s">
+      <c r="C199" s="2" t="s">
         <v>562</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="200">
@@ -6479,13 +6479,13 @@
       <c r="B200" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E200" s="2" t="s">
+      <c r="C200" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="F200" s="3" t="s">
+      <c r="D200" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200" s="3" t="s">
         <v>566</v>
       </c>
     </row>
@@ -6496,11 +6496,11 @@
       <c r="B201" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F201" s="3" t="s">
+      <c r="C201" s="2" t="s">
         <v>569</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="202">
@@ -6510,11 +6510,11 @@
       <c r="B202" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F202" s="3" t="s">
+      <c r="C202" s="2" t="s">
         <v>571</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="203">
@@ -6524,11 +6524,11 @@
       <c r="B203" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F203" s="3" t="s">
+      <c r="C203" s="2" t="s">
         <v>573</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="204">
@@ -6538,13 +6538,13 @@
       <c r="B204" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E204" s="2" t="s">
+      <c r="C204" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F204" s="3" t="s">
+      <c r="D204" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E204" s="3" t="s">
         <v>577</v>
       </c>
     </row>
@@ -6555,11 +6555,11 @@
       <c r="B205" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F205" s="3" t="s">
+      <c r="C205" s="2" t="s">
         <v>579</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="206">
@@ -6569,11 +6569,11 @@
       <c r="B206" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F206" s="3" t="s">
+      <c r="C206" s="2" t="s">
         <v>582</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="207">
@@ -6583,13 +6583,13 @@
       <c r="B207" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E207" s="2" t="s">
+      <c r="C207" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="F207" s="3" t="s">
+      <c r="D207" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207" s="3" t="s">
         <v>585</v>
       </c>
     </row>
@@ -6600,13 +6600,13 @@
       <c r="B208" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E208" s="2" t="s">
+      <c r="C208" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="F208" s="3" t="s">
+      <c r="D208" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" s="3" t="s">
         <v>589</v>
       </c>
     </row>
@@ -6617,13 +6617,13 @@
       <c r="B209" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E209" s="2" t="s">
+      <c r="C209" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="F209" s="3" t="s">
+      <c r="D209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209" s="3" t="s">
         <v>589</v>
       </c>
     </row>
@@ -6634,13 +6634,13 @@
       <c r="B210" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E210" s="2" t="s">
+      <c r="C210" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="F210" s="3" t="s">
+      <c r="D210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E210" s="3" t="s">
         <v>593</v>
       </c>
     </row>
@@ -6651,11 +6651,11 @@
       <c r="B211" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F211" s="3" t="s">
+      <c r="C211" s="2" t="s">
         <v>596</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="212">
@@ -6665,11 +6665,11 @@
       <c r="B212" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F212" s="3" t="s">
+      <c r="C212" s="2" t="s">
         <v>599</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="213">
@@ -6679,11 +6679,11 @@
       <c r="B213" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F213" s="3" t="s">
+      <c r="C213" s="2" t="s">
         <v>601</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="214">
@@ -6693,11 +6693,11 @@
       <c r="B214" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F214" s="3" t="s">
+      <c r="C214" s="2" t="s">
         <v>603</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="215">
@@ -6707,13 +6707,13 @@
       <c r="B215" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E215" s="2" t="s">
+      <c r="C215" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F215" s="3" t="s">
+      <c r="D215" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E215" s="3" t="s">
         <v>607</v>
       </c>
     </row>
@@ -6724,11 +6724,11 @@
       <c r="B216" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F216" s="3" t="s">
+      <c r="C216" s="2" t="s">
         <v>609</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="217">
@@ -6738,11 +6738,11 @@
       <c r="B217" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F217" s="3" t="s">
+      <c r="C217" s="2" t="s">
         <v>612</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="218">
@@ -6752,11 +6752,11 @@
       <c r="B218" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F218" s="3" t="s">
+      <c r="C218" s="2" t="s">
         <v>615</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="219">
@@ -6766,11 +6766,11 @@
       <c r="B219" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F219" s="3" t="s">
+      <c r="C219" s="2" t="s">
         <v>617</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="220">
@@ -6780,13 +6780,13 @@
       <c r="B220" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E220" s="2" t="s">
+      <c r="C220" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="F220" s="3" t="s">
+      <c r="D220" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" s="3" t="s">
         <v>621</v>
       </c>
     </row>
@@ -6797,13 +6797,13 @@
       <c r="B221" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E221" s="2" t="s">
+      <c r="C221" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="F221" s="3" t="s">
+      <c r="D221" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221" s="3" t="s">
         <v>625</v>
       </c>
     </row>
@@ -6814,11 +6814,11 @@
       <c r="B222" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C222" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F222" s="3" t="s">
+      <c r="C222" s="2" t="s">
         <v>628</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="223">
@@ -6828,11 +6828,11 @@
       <c r="B223" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F223" s="3" t="s">
+      <c r="C223" s="2" t="s">
         <v>631</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="224">
@@ -6842,13 +6842,13 @@
       <c r="B224" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E224" s="2" t="s">
+      <c r="C224" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="F224" s="3" t="s">
+      <c r="D224" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" s="3" t="s">
         <v>635</v>
       </c>
     </row>
@@ -6859,13 +6859,13 @@
       <c r="B225" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E225" s="2" t="s">
+      <c r="C225" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="F225" s="3" t="s">
+      <c r="D225" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E225" s="3" t="s">
         <v>639</v>
       </c>
     </row>
@@ -6876,11 +6876,11 @@
       <c r="B226" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F226" s="3" t="s">
+      <c r="C226" s="2" t="s">
         <v>641</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="227">
@@ -6890,11 +6890,11 @@
       <c r="B227" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F227" s="3" t="s">
+      <c r="C227" s="2" t="s">
         <v>643</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="228">
@@ -6904,11 +6904,11 @@
       <c r="B228" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F228" s="3" t="s">
+      <c r="C228" s="2" t="s">
         <v>645</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="229">
@@ -6918,11 +6918,11 @@
       <c r="B229" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F229" s="3" t="s">
+      <c r="C229" s="2" t="s">
         <v>647</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="230">
@@ -6932,11 +6932,11 @@
       <c r="B230" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C230" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F230" s="3" t="s">
+      <c r="C230" s="2" t="s">
         <v>649</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="231">
@@ -6946,11 +6946,11 @@
       <c r="B231" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F231" s="3" t="s">
+      <c r="C231" s="2" t="s">
         <v>651</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="232">
@@ -6960,11 +6960,11 @@
       <c r="B232" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F232" s="3" t="s">
+      <c r="C232" s="2" t="s">
         <v>653</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="233">
@@ -6974,11 +6974,11 @@
       <c r="B233" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C233" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F233" s="3" t="s">
+      <c r="C233" s="2" t="s">
         <v>655</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="234">
@@ -6988,11 +6988,11 @@
       <c r="B234" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F234" s="3" t="s">
+      <c r="C234" s="2" t="s">
         <v>657</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="235">
@@ -7002,13 +7002,13 @@
       <c r="B235" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E235" s="2" t="s">
+      <c r="C235" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="F235" s="3" t="s">
+      <c r="D235" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E235" s="3" t="s">
         <v>661</v>
       </c>
     </row>
@@ -7019,13 +7019,13 @@
       <c r="B236" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C236" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E236" s="2" t="s">
+      <c r="C236" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="F236" s="3" t="s">
+      <c r="D236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E236" s="3" t="s">
         <v>665</v>
       </c>
     </row>
@@ -7036,13 +7036,13 @@
       <c r="B237" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="C237" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E237" s="2" t="s">
+      <c r="C237" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="F237" s="3" t="s">
+      <c r="D237" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237" s="3" t="s">
         <v>669</v>
       </c>
     </row>
@@ -7053,13 +7053,13 @@
       <c r="B238" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C238" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E238" s="2" t="s">
+      <c r="C238" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="F238" s="3" t="s">
+      <c r="D238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E238" s="3" t="s">
         <v>673</v>
       </c>
     </row>
@@ -7070,13 +7070,13 @@
       <c r="B239" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C239" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E239" s="2" t="s">
+      <c r="C239" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="F239" s="3" t="s">
+      <c r="D239" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E239" s="3" t="s">
         <v>677</v>
       </c>
     </row>
@@ -7087,13 +7087,13 @@
       <c r="B240" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E240" s="2" t="s">
+      <c r="C240" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="F240" s="3" t="s">
+      <c r="D240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E240" s="3" t="s">
         <v>681</v>
       </c>
     </row>
@@ -7104,13 +7104,13 @@
       <c r="B241" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="C241" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E241" s="2" t="s">
+      <c r="C241" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="F241" s="3" t="s">
+      <c r="D241" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E241" s="3" t="s">
         <v>685</v>
       </c>
     </row>
@@ -7121,13 +7121,13 @@
       <c r="B242" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="C242" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E242" s="2" t="s">
+      <c r="C242" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="F242" s="3" t="s">
+      <c r="D242" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E242" s="3" t="s">
         <v>689</v>
       </c>
     </row>
@@ -7138,13 +7138,13 @@
       <c r="B243" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="C243" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E243" s="2" t="s">
+      <c r="C243" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="F243" s="3" t="s">
+      <c r="D243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E243" s="3" t="s">
         <v>693</v>
       </c>
     </row>
@@ -7155,11 +7155,11 @@
       <c r="B244" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C244" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F244" s="3" t="s">
+      <c r="C244" s="2" t="s">
         <v>695</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="245">
@@ -7169,13 +7169,13 @@
       <c r="B245" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C245" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E245" s="2" t="s">
+      <c r="C245" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="F245" s="3" t="s">
+      <c r="D245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E245" s="3" t="s">
         <v>699</v>
       </c>
     </row>
@@ -7186,11 +7186,11 @@
       <c r="B246" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C246" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F246" s="3" t="s">
+      <c r="C246" s="2" t="s">
         <v>702</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="247">
@@ -7200,13 +7200,13 @@
       <c r="B247" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C247" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E247" s="2" t="s">
+      <c r="C247" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="F247" s="3" t="s">
+      <c r="D247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E247" s="3" t="s">
         <v>706</v>
       </c>
     </row>
@@ -7217,11 +7217,11 @@
       <c r="B248" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C248" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F248" s="3" t="s">
+      <c r="C248" s="2" t="s">
         <v>708</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="249">
@@ -7231,13 +7231,13 @@
       <c r="B249" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="C249" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E249" s="2" t="s">
+      <c r="C249" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="F249" s="3" t="s">
+      <c r="D249" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E249" s="3" t="s">
         <v>712</v>
       </c>
     </row>
@@ -7248,14 +7248,14 @@
       <c r="B250" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="F250" s="3" t="s">
+      <c r="C250" s="2" t="s">
         <v>714</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="251">
@@ -7265,14 +7265,14 @@
       <c r="B251" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="F251" s="3" t="s">
+      <c r="C251" s="2" t="s">
         <v>716</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="252">
@@ -7282,13 +7282,13 @@
       <c r="B252" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E252" s="2" t="s">
+      <c r="C252" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="F252" s="3" t="s">
+      <c r="D252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252" s="3" t="s">
         <v>720</v>
       </c>
     </row>
@@ -7299,13 +7299,13 @@
       <c r="B253" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C253" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E253" s="2" t="s">
+      <c r="C253" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="F253" s="3" t="s">
+      <c r="D253" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" s="3" t="s">
         <v>724</v>
       </c>
     </row>
@@ -7316,13 +7316,13 @@
       <c r="B254" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C254" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E254" s="2" t="s">
+      <c r="C254" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="F254" s="3" t="s">
+      <c r="D254" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E254" s="3" t="s">
         <v>728</v>
       </c>
     </row>
@@ -7333,13 +7333,13 @@
       <c r="B255" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C255" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E255" s="2" t="s">
+      <c r="C255" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="F255" s="3" t="s">
+      <c r="D255" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E255" s="3" t="s">
         <v>732</v>
       </c>
     </row>
@@ -7350,13 +7350,13 @@
       <c r="B256" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C256" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E256" s="2" t="s">
+      <c r="C256" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="F256" s="3" t="s">
+      <c r="D256" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E256" s="3" t="s">
         <v>736</v>
       </c>
     </row>
@@ -7524,10 +7524,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -7538,7 +7538,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="9"/>
     </row>
@@ -7550,10 +7550,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -7564,10 +7564,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -7578,7 +7578,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="14"/>
     </row>
@@ -7590,7 +7590,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -7602,7 +7602,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="14"/>
     </row>
@@ -7614,10 +7614,10 @@
         <v>27</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -7628,10 +7628,10 @@
         <v>27</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -7642,10 +7642,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -7656,10 +7656,10 @@
         <v>27</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -7670,10 +7670,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -7684,10 +7684,10 @@
         <v>27</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -7698,10 +7698,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -7712,10 +7712,10 @@
         <v>27</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -7726,10 +7726,10 @@
         <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
@@ -7740,10 +7740,10 @@
         <v>27</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -7754,10 +7754,10 @@
         <v>27</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -7768,10 +7768,10 @@
         <v>27</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -7782,10 +7782,10 @@
         <v>40</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
@@ -7796,10 +7796,10 @@
         <v>68</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -7810,7 +7810,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -7822,10 +7822,10 @@
         <v>74</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -7836,10 +7836,10 @@
         <v>78</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
@@ -7850,7 +7850,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="14"/>
     </row>
@@ -7862,7 +7862,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="9"/>
     </row>
@@ -7874,10 +7874,10 @@
         <v>86</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28">
@@ -7888,10 +7888,10 @@
         <v>90</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
@@ -7902,10 +7902,10 @@
         <v>95</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
@@ -7916,10 +7916,10 @@
         <v>95</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
@@ -7930,10 +7930,10 @@
         <v>99</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -7944,10 +7944,10 @@
         <v>103</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -7958,7 +7958,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" s="14"/>
     </row>
@@ -7970,7 +7970,7 @@
         <v>6</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34" s="9"/>
     </row>
@@ -7982,10 +7982,10 @@
         <v>111</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
@@ -7996,10 +7996,10 @@
         <v>115</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
@@ -8010,10 +8010,10 @@
         <v>119</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
@@ -8024,10 +8024,10 @@
         <v>123</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
@@ -8038,10 +8038,10 @@
         <v>123</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40">
@@ -8052,10 +8052,10 @@
         <v>127</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -8066,10 +8066,10 @@
         <v>131</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42">
@@ -8080,10 +8080,10 @@
         <v>135</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43">
@@ -8094,7 +8094,7 @@
         <v>139</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" s="14"/>
     </row>
@@ -8106,7 +8106,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D44" s="9"/>
     </row>
@@ -8118,7 +8118,7 @@
         <v>144</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" s="14"/>
     </row>
@@ -8130,10 +8130,10 @@
         <v>147</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47">
@@ -8144,10 +8144,10 @@
         <v>151</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48">
@@ -8158,7 +8158,7 @@
         <v>155</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48" s="9"/>
     </row>
@@ -8170,7 +8170,7 @@
         <v>155</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49" s="14"/>
     </row>
@@ -8182,10 +8182,10 @@
         <v>160</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51">
@@ -8196,10 +8196,10 @@
         <v>164</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52">
@@ -8210,10 +8210,10 @@
         <v>40</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53">
@@ -8224,10 +8224,10 @@
         <v>171</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54">
@@ -8238,7 +8238,7 @@
         <v>175</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D54" s="9"/>
     </row>
@@ -8250,10 +8250,10 @@
         <v>178</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56">
@@ -8264,10 +8264,10 @@
         <v>27</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57">
@@ -8278,10 +8278,10 @@
         <v>27</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58">
@@ -8292,10 +8292,10 @@
         <v>27</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59">
@@ -8306,10 +8306,10 @@
         <v>191</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60">
@@ -8320,10 +8320,10 @@
         <v>195</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61">
@@ -8334,10 +8334,10 @@
         <v>40</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62">
@@ -8348,7 +8348,7 @@
         <v>202</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D62" s="9"/>
     </row>
@@ -8360,10 +8360,10 @@
         <v>27</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64">
@@ -8374,7 +8374,7 @@
         <v>27</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D64" s="9"/>
     </row>
@@ -8386,7 +8386,7 @@
         <v>6</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" s="14"/>
     </row>
@@ -8398,7 +8398,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D66" s="9"/>
     </row>
@@ -8410,7 +8410,7 @@
         <v>6</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D67" s="14"/>
     </row>
@@ -8422,7 +8422,7 @@
         <v>40</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D68" s="9"/>
     </row>
@@ -8434,10 +8434,10 @@
         <v>27</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70">
@@ -8448,10 +8448,10 @@
         <v>27</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71">
@@ -8462,10 +8462,10 @@
         <v>27</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72">
@@ -8476,10 +8476,10 @@
         <v>27</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73">
@@ -8490,10 +8490,10 @@
         <v>27</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74">
@@ -8504,10 +8504,10 @@
         <v>27</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75">
@@ -8518,7 +8518,7 @@
         <v>27</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D75" s="14"/>
     </row>
@@ -8530,10 +8530,10 @@
         <v>27</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77">
@@ -8544,10 +8544,10 @@
         <v>78</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78">
@@ -8558,7 +8558,7 @@
         <v>6</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78" s="9"/>
     </row>
@@ -8570,7 +8570,7 @@
         <v>6</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D79" s="14"/>
     </row>
@@ -8582,7 +8582,7 @@
         <v>6</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D80" s="9"/>
     </row>
@@ -8594,7 +8594,7 @@
         <v>250</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D81" s="14"/>
     </row>
@@ -8606,7 +8606,7 @@
         <v>252</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D82" s="9"/>
     </row>
@@ -8618,7 +8618,7 @@
         <v>40</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83" s="14"/>
     </row>
@@ -8630,10 +8630,10 @@
         <v>257</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85">
@@ -8644,7 +8644,7 @@
         <v>40</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D85" s="14"/>
     </row>
@@ -8656,10 +8656,10 @@
         <v>263</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87">
@@ -8670,7 +8670,7 @@
         <v>6</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D87" s="14"/>
     </row>
@@ -8682,7 +8682,7 @@
         <v>6</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D88" s="9"/>
     </row>
@@ -8694,7 +8694,7 @@
         <v>6</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D89" s="14"/>
     </row>
@@ -8706,7 +8706,7 @@
         <v>273</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D90" s="9"/>
     </row>
@@ -8718,10 +8718,10 @@
         <v>276</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="92">
@@ -8732,10 +8732,10 @@
         <v>280</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93">
@@ -8746,7 +8746,7 @@
         <v>284</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D93" s="14"/>
     </row>
@@ -8758,7 +8758,7 @@
         <v>284</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D94" s="9"/>
     </row>
@@ -8770,7 +8770,7 @@
         <v>6</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D95" s="14"/>
     </row>
@@ -8782,7 +8782,7 @@
         <v>6</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D96" s="9"/>
     </row>
@@ -8794,7 +8794,7 @@
         <v>6</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D97" s="14"/>
     </row>
@@ -8806,7 +8806,7 @@
         <v>293</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D98" s="9"/>
     </row>
@@ -8818,7 +8818,7 @@
         <v>6</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D99" s="14"/>
     </row>
@@ -8830,10 +8830,10 @@
         <v>298</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101">
@@ -8844,7 +8844,7 @@
         <v>6</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D101" s="14"/>
     </row>
@@ -8856,10 +8856,10 @@
         <v>304</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103">
@@ -8870,10 +8870,10 @@
         <v>308</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="104">
@@ -8884,7 +8884,7 @@
         <v>78</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D104" s="9"/>
     </row>
@@ -8896,7 +8896,7 @@
         <v>6</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D105" s="14"/>
     </row>
@@ -8908,7 +8908,7 @@
         <v>6</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D106" s="9"/>
     </row>
@@ -8920,7 +8920,7 @@
         <v>6</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D107" s="14"/>
     </row>
@@ -8932,7 +8932,7 @@
         <v>6</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D108" s="9"/>
     </row>
@@ -8944,10 +8944,10 @@
         <v>320</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110">
@@ -8958,10 +8958,10 @@
         <v>324</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111">
@@ -8972,7 +8972,7 @@
         <v>328</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D111" s="14"/>
     </row>
@@ -8984,7 +8984,7 @@
         <v>331</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D112" s="9"/>
     </row>
@@ -8996,7 +8996,7 @@
         <v>333</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D113" s="14"/>
     </row>
@@ -9008,7 +9008,7 @@
         <v>336</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D114" s="9"/>
     </row>
@@ -9020,7 +9020,7 @@
         <v>339</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D115" s="14"/>
     </row>
@@ -9032,7 +9032,7 @@
         <v>342</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D116" s="9"/>
     </row>
@@ -9044,7 +9044,7 @@
         <v>344</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D117" s="14"/>
     </row>
@@ -9056,7 +9056,7 @@
         <v>347</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D118" s="9"/>
     </row>
@@ -9068,7 +9068,7 @@
         <v>350</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D119" s="14"/>
     </row>
@@ -9080,7 +9080,7 @@
         <v>353</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D120" s="9"/>
     </row>
@@ -9092,7 +9092,7 @@
         <v>356</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D121" s="14"/>
     </row>
@@ -9104,7 +9104,7 @@
         <v>359</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D122" s="9"/>
     </row>
@@ -9116,7 +9116,7 @@
         <v>362</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D123" s="14"/>
     </row>
@@ -9128,7 +9128,7 @@
         <v>365</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D124" s="9"/>
     </row>
@@ -9140,7 +9140,7 @@
         <v>368</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D125" s="14"/>
     </row>
@@ -9152,7 +9152,7 @@
         <v>371</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D126" s="9"/>
     </row>
@@ -9164,7 +9164,7 @@
         <v>374</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D127" s="14"/>
     </row>
@@ -9176,7 +9176,7 @@
         <v>377</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D128" s="9"/>
     </row>
@@ -9188,7 +9188,7 @@
         <v>380</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D129" s="14"/>
     </row>
@@ -9200,7 +9200,7 @@
         <v>383</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D130" s="9"/>
     </row>
@@ -9212,7 +9212,7 @@
         <v>386</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D131" s="14"/>
     </row>
@@ -9224,7 +9224,7 @@
         <v>389</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D132" s="9"/>
     </row>
@@ -9236,7 +9236,7 @@
         <v>392</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D133" s="14"/>
     </row>
@@ -9248,7 +9248,7 @@
         <v>395</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D134" s="9"/>
     </row>
@@ -9260,7 +9260,7 @@
         <v>398</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D135" s="14"/>
     </row>
@@ -9272,7 +9272,7 @@
         <v>401</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D136" s="9"/>
     </row>
@@ -9284,7 +9284,7 @@
         <v>6</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D137" s="14"/>
     </row>
@@ -9296,7 +9296,7 @@
         <v>6</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D138" s="9"/>
     </row>
@@ -9308,10 +9308,10 @@
         <v>408</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="140">
@@ -9322,7 +9322,7 @@
         <v>412</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D140" s="9"/>
     </row>
@@ -9334,7 +9334,7 @@
         <v>412</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D141" s="14"/>
     </row>
@@ -9346,7 +9346,7 @@
         <v>412</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D142" s="9"/>
     </row>
@@ -9358,10 +9358,10 @@
         <v>419</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="144">
@@ -9372,10 +9372,10 @@
         <v>419</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="145">
@@ -9386,7 +9386,7 @@
         <v>6</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D145" s="14"/>
     </row>
@@ -9398,10 +9398,10 @@
         <v>27</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="147">
@@ -9412,7 +9412,7 @@
         <v>27</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D147" s="14"/>
     </row>
@@ -9424,10 +9424,10 @@
         <v>27</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="149">
@@ -9438,10 +9438,10 @@
         <v>27</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="150">
@@ -9452,10 +9452,10 @@
         <v>27</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="151">
@@ -9466,7 +9466,7 @@
         <v>27</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D151" s="14"/>
     </row>
@@ -9478,10 +9478,10 @@
         <v>27</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="153">
@@ -9492,7 +9492,7 @@
         <v>445</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D153" s="14"/>
     </row>
@@ -9504,7 +9504,7 @@
         <v>447</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D154" s="9"/>
     </row>
@@ -9516,7 +9516,7 @@
         <v>450</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D155" s="14"/>
     </row>
@@ -9528,7 +9528,7 @@
         <v>452</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D156" s="9"/>
     </row>
@@ -9540,7 +9540,7 @@
         <v>6</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D157" s="14"/>
     </row>
@@ -9552,7 +9552,7 @@
         <v>6</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D158" s="9"/>
     </row>
@@ -9564,7 +9564,7 @@
         <v>6</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D159" s="14"/>
     </row>
@@ -9576,7 +9576,7 @@
         <v>6</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D160" s="9"/>
     </row>
@@ -9588,7 +9588,7 @@
         <v>6</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D161" s="14"/>
     </row>
@@ -9600,7 +9600,7 @@
         <v>6</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D162" s="9"/>
     </row>
@@ -9612,7 +9612,7 @@
         <v>6</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D163" s="14"/>
     </row>
@@ -9624,7 +9624,7 @@
         <v>6</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D164" s="9"/>
     </row>
@@ -9636,7 +9636,7 @@
         <v>6</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D165" s="14"/>
     </row>
@@ -9648,7 +9648,7 @@
         <v>6</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D166" s="9"/>
     </row>
@@ -9660,10 +9660,10 @@
         <v>27</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="168">
@@ -9674,10 +9674,10 @@
         <v>27</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="169">
@@ -9688,10 +9688,10 @@
         <v>27</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="170">
@@ -9702,7 +9702,7 @@
         <v>27</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D170" s="9"/>
     </row>
@@ -9714,10 +9714,10 @@
         <v>27</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="172">
@@ -9728,10 +9728,10 @@
         <v>27</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D172" s="13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="173">
@@ -9742,10 +9742,10 @@
         <v>27</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="174">
@@ -9756,10 +9756,10 @@
         <v>27</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D174" s="13" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="175">
@@ -9770,10 +9770,10 @@
         <v>27</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="176">
@@ -9784,10 +9784,10 @@
         <v>27</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D176" s="13" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="177">
@@ -9798,7 +9798,7 @@
         <v>27</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D177" s="14"/>
     </row>
@@ -9810,10 +9810,10 @@
         <v>27</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D178" s="13" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="179">
@@ -9824,10 +9824,10 @@
         <v>27</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="180">
@@ -9838,10 +9838,10 @@
         <v>27</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D180" s="13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="181">
@@ -9852,10 +9852,10 @@
         <v>27</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="182">
@@ -9866,10 +9866,10 @@
         <v>27</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D182" s="13" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="183">
@@ -9880,10 +9880,10 @@
         <v>27</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="184">
@@ -9894,10 +9894,10 @@
         <v>27</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="185">
@@ -9908,10 +9908,10 @@
         <v>27</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="186">
@@ -9922,10 +9922,10 @@
         <v>27</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="187">
@@ -9936,10 +9936,10 @@
         <v>27</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="188">
@@ -9950,10 +9950,10 @@
         <v>27</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D188" s="13" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="189">
@@ -9964,10 +9964,10 @@
         <v>27</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="190">
@@ -9978,10 +9978,10 @@
         <v>27</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D190" s="13" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="191">
@@ -9992,10 +9992,10 @@
         <v>536</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="192">
@@ -10006,10 +10006,10 @@
         <v>540</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D192" s="13" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="193">
@@ -10020,7 +10020,7 @@
         <v>6</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D193" s="14"/>
     </row>
@@ -10032,10 +10032,10 @@
         <v>546</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="195">
@@ -10046,10 +10046,10 @@
         <v>27</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="196">
@@ -10060,10 +10060,10 @@
         <v>27</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D196" s="13" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="197">
@@ -10074,10 +10074,10 @@
         <v>27</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D197" s="12" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="198">
@@ -10088,10 +10088,10 @@
         <v>27</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D198" s="13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="199">
@@ -10102,7 +10102,7 @@
         <v>6</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D199" s="14"/>
     </row>
@@ -10114,10 +10114,10 @@
         <v>564</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D200" s="13" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="201">
@@ -10128,7 +10128,7 @@
         <v>568</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D201" s="14"/>
     </row>
@@ -10140,7 +10140,7 @@
         <v>570</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D202" s="9"/>
     </row>
@@ -10152,7 +10152,7 @@
         <v>78</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D203" s="14"/>
     </row>
@@ -10164,10 +10164,10 @@
         <v>575</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D204" s="13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="205">
@@ -10178,7 +10178,7 @@
         <v>6</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D205" s="14"/>
     </row>
@@ -10190,7 +10190,7 @@
         <v>581</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D206" s="9"/>
     </row>
@@ -10202,10 +10202,10 @@
         <v>14</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D207" s="12" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="208">
@@ -10216,10 +10216,10 @@
         <v>587</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D208" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="209">
@@ -10230,10 +10230,10 @@
         <v>587</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="210">
@@ -10244,10 +10244,10 @@
         <v>591</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D210" s="13" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="211">
@@ -10258,7 +10258,7 @@
         <v>595</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D211" s="14"/>
     </row>
@@ -10270,7 +10270,7 @@
         <v>598</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D212" s="9"/>
     </row>
@@ -10282,7 +10282,7 @@
         <v>600</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D213" s="14"/>
     </row>
@@ -10294,7 +10294,7 @@
         <v>78</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D214" s="9"/>
     </row>
@@ -10306,10 +10306,10 @@
         <v>605</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="216">
@@ -10320,7 +10320,7 @@
         <v>6</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D216" s="9"/>
     </row>
@@ -10332,7 +10332,7 @@
         <v>611</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D217" s="14"/>
     </row>
@@ -10344,7 +10344,7 @@
         <v>614</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D218" s="9"/>
     </row>
@@ -10356,7 +10356,7 @@
         <v>6</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D219" s="14"/>
     </row>
@@ -10368,10 +10368,10 @@
         <v>619</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D220" s="13" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="221">
@@ -10382,10 +10382,10 @@
         <v>623</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="222">
@@ -10396,7 +10396,7 @@
         <v>627</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D222" s="9"/>
     </row>
@@ -10408,7 +10408,7 @@
         <v>630</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D223" s="14"/>
     </row>
@@ -10420,10 +10420,10 @@
         <v>633</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D224" s="13" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="225">
@@ -10434,10 +10434,10 @@
         <v>637</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="226">
@@ -10448,7 +10448,7 @@
         <v>6</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D226" s="9"/>
     </row>
@@ -10460,7 +10460,7 @@
         <v>6</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D227" s="14"/>
     </row>
@@ -10472,7 +10472,7 @@
         <v>6</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D228" s="9"/>
     </row>
@@ -10484,7 +10484,7 @@
         <v>6</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D229" s="14"/>
     </row>
@@ -10496,7 +10496,7 @@
         <v>6</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D230" s="9"/>
     </row>
@@ -10508,7 +10508,7 @@
         <v>6</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D231" s="14"/>
     </row>
@@ -10520,7 +10520,7 @@
         <v>6</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D232" s="9"/>
     </row>
@@ -10532,7 +10532,7 @@
         <v>6</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D233" s="14"/>
     </row>
@@ -10544,7 +10544,7 @@
         <v>6</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D234" s="9"/>
     </row>
@@ -10556,10 +10556,10 @@
         <v>659</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="236">
@@ -10570,10 +10570,10 @@
         <v>663</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D236" s="13" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="237">
@@ -10584,10 +10584,10 @@
         <v>667</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="238">
@@ -10598,10 +10598,10 @@
         <v>671</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D238" s="13" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="239">
@@ -10612,10 +10612,10 @@
         <v>675</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="240">
@@ -10626,10 +10626,10 @@
         <v>679</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D240" s="13" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="241">
@@ -10640,10 +10640,10 @@
         <v>683</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="242">
@@ -10654,10 +10654,10 @@
         <v>687</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D242" s="13" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="243">
@@ -10668,10 +10668,10 @@
         <v>691</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="244">
@@ -10682,7 +10682,7 @@
         <v>6</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D244" s="9"/>
     </row>
@@ -10694,10 +10694,10 @@
         <v>697</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="246">
@@ -10708,7 +10708,7 @@
         <v>701</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D246" s="9"/>
     </row>
@@ -10720,10 +10720,10 @@
         <v>704</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="248">
@@ -10734,7 +10734,7 @@
         <v>40</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D248" s="9"/>
     </row>
@@ -10746,10 +10746,10 @@
         <v>710</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="250">
@@ -10760,10 +10760,10 @@
         <v>713</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D250" s="13" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="251">
@@ -10774,10 +10774,10 @@
         <v>715</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="252">
@@ -10788,10 +10788,10 @@
         <v>718</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D252" s="13" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="253">
@@ -10802,10 +10802,10 @@
         <v>722</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="254">
@@ -10816,10 +10816,10 @@
         <v>726</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D254" s="13" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="255">
@@ -10830,10 +10830,10 @@
         <v>730</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="256">
@@ -10844,10 +10844,10 @@
         <v>734</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
